--- a/static/files/fms/temporary_response/result_ordered_construction_excel.xlsx
+++ b/static/files/fms/temporary_response/result_ordered_construction_excel.xlsx
@@ -411,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
@@ -513,22 +513,22 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>21293</v>
+        <v>18663</v>
       </c>
       <c r="B2" s="7" t="n"/>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>2121YY012</t>
         </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="n">
-        <v>4900000</v>
+        <v>836000</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0</v>
@@ -547,42 +547,44 @@
         <v>0</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>4900000</v>
+        <v>836000</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>70035</v>
+        <v>70177</v>
       </c>
       <c r="O2" s="7" t="n"/>
       <c r="P2" s="7" t="inlineStr">
         <is>
-          <t>サイクロンダンプバルブ主要部品購入</t>
-        </is>
-      </c>
-      <c r="Q2" s="7" t="n"/>
+          <t>ｴﾚﾍﾞｰﾀｰ官庁検査整備工事（機械）</t>
+        </is>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>44326</v>
+      </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>4502181834</t>
+          <t>4502184144</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>21292</v>
+        <v>19600</v>
       </c>
       <c r="B3" s="7" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>2121YY002</t>
+          <t>1321YY103</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>仕上G</t>
         </is>
       </c>
       <c r="E3" s="7" t="n"/>
       <c r="F3" s="7" t="n">
-        <v>2114000</v>
+        <v>682000</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>0</v>
@@ -601,15 +603,15 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>2114000</v>
+        <v>682000</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>70105</v>
+        <v>60953</v>
       </c>
       <c r="O3" s="7" t="n"/>
       <c r="P3" s="7" t="inlineStr">
         <is>
-          <t>塩化炉温度計購入</t>
+          <t>F-40-1,2 1stRVFフィード配管更新（設計）</t>
         </is>
       </c>
       <c r="Q3" s="8" t="n">
@@ -617,35 +619,35 @@
       </c>
       <c r="R3" s="7" t="inlineStr">
         <is>
-          <t>4502182103</t>
+          <t>4502185503</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>21430</v>
+        <v>20357</v>
       </c>
       <c r="B4" s="7" t="n"/>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>2121YY064</t>
+          <t>2121YY416</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>医薬製品G</t>
         </is>
       </c>
       <c r="E4" s="7" t="n"/>
       <c r="F4" s="7" t="n">
-        <v>246600</v>
+        <v>523600</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="n"/>
       <c r="I4" s="7" t="n">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>0</v>
@@ -654,35 +656,33 @@
         <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>246600</v>
+        <v>450000</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>70479</v>
+        <v>70267</v>
       </c>
       <c r="O4" s="7" t="n"/>
       <c r="P4" s="7" t="inlineStr">
         <is>
-          <t>H-101 廃熱ﾎﾞｲﾗｰ整備工事(整備部品購入)</t>
-        </is>
-      </c>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="7" t="inlineStr">
-        <is>
-          <t>4502182105</t>
-        </is>
-      </c>
+          <t>C-423空気輸送機整備工事</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="n">
+        <v>44439</v>
+      </c>
+      <c r="R4" s="7" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>19718</v>
+        <v>21292</v>
       </c>
       <c r="B5" s="7" t="n"/>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>1321YY086</t>
+          <t>2121YY002</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -690,13 +690,9 @@
           <t>塩素法G</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>大志野産業株式会社</t>
-        </is>
-      </c>
+      <c r="E5" s="7" t="n"/>
       <c r="F5" s="7" t="n">
-        <v>400000</v>
+        <v>2114000</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>0</v>
@@ -715,15 +711,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>400000</v>
+        <v>2114000</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>57960</v>
+        <v>70105</v>
       </c>
       <c r="O5" s="7" t="n"/>
       <c r="P5" s="7" t="inlineStr">
         <is>
-          <t>G-802-3回収ｽﾗﾘｰﾀﾝｸ減速機更新（機器購入）</t>
+          <t>塩化炉温度計購入</t>
         </is>
       </c>
       <c r="Q5" s="8" t="n">
@@ -731,18 +727,18 @@
       </c>
       <c r="R5" s="7" t="inlineStr">
         <is>
-          <t>4502185115</t>
+          <t>4502182103</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>19719</v>
+        <v>21293</v>
       </c>
       <c r="B6" s="7" t="n"/>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>1321YY085</t>
+          <t>2121YY080</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
@@ -750,13 +746,9 @@
           <t>塩素法G</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>大志野産業株式会社</t>
-        </is>
-      </c>
+      <c r="E6" s="7" t="n"/>
       <c r="F6" s="7" t="n">
-        <v>1260000</v>
+        <v>4900000</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>0</v>
@@ -775,34 +767,32 @@
         <v>0</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>1260000</v>
+        <v>4900000</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>57978</v>
+        <v>70035</v>
       </c>
       <c r="O6" s="7" t="n"/>
       <c r="P6" s="7" t="inlineStr">
         <is>
-          <t>G-502-6 BDｽﾄﾚｰｼﾞﾀﾝｸ減速機更新(機器購入)</t>
-        </is>
-      </c>
-      <c r="Q6" s="8" t="n">
-        <v>44407</v>
-      </c>
+          <t>サイクロンダンプバルブ主要部品購入</t>
+        </is>
+      </c>
+      <c r="Q6" s="7" t="n"/>
       <c r="R6" s="7" t="inlineStr">
         <is>
-          <t>4502185114</t>
+          <t>4502181834</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>19720</v>
+        <v>21430</v>
       </c>
       <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>1321YY093</t>
+          <t>2121YY064</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
@@ -810,13 +800,9 @@
           <t>塩素法G</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>大志野産業株式会社</t>
-        </is>
-      </c>
+      <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n">
-        <v>1000000</v>
+        <v>246600</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>0</v>
@@ -835,55 +821,53 @@
         <v>0</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>1000000</v>
+        <v>246600</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>57990</v>
+        <v>70479</v>
       </c>
       <c r="O7" s="7" t="n"/>
       <c r="P7" s="7" t="inlineStr">
         <is>
-          <t>G-446C ｽﾗﾘｰｽﾄｯｸﾀﾝｸ減速機更新（機器購入）</t>
-        </is>
-      </c>
-      <c r="Q7" s="8" t="n">
-        <v>44377</v>
-      </c>
+          <t>H-101 廃熱ﾎﾞｲﾗｰ整備工事(整備部品購入)</t>
+        </is>
+      </c>
+      <c r="Q7" s="7" t="n"/>
       <c r="R7" s="7" t="inlineStr">
         <is>
-          <t>4502185158</t>
+          <t>4502182105</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>21275</v>
+        <v>21488</v>
       </c>
       <c r="B8" s="7" t="n"/>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>1321YY008</t>
+          <t>1321YY061</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>三興商事（株）　名古屋（営）</t>
+          <t>大志野産業株式会社</t>
         </is>
       </c>
       <c r="F8" s="7" t="n">
-        <v>68000000</v>
+        <v>270000</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n">
-        <v>8200000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>0</v>
@@ -892,58 +876,56 @@
         <v>0</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>8200000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>59800000</v>
+        <v>270000</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>70068</v>
+        <v>70022</v>
       </c>
       <c r="O8" s="7" t="n"/>
       <c r="P8" s="7" t="inlineStr">
         <is>
-          <t>E-773 冷凍機の更新工事（機器購入）</t>
-        </is>
-      </c>
-      <c r="Q8" s="8" t="n">
-        <v>44469</v>
-      </c>
+          <t>F-04　ﾊﾞｹｯﾄｴﾚﾍﾞｰﾀｰ更新工事(減速機購入)</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="n"/>
       <c r="R8" s="7" t="inlineStr">
         <is>
-          <t>4502181327</t>
+          <t>4502186601</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>21448</v>
+        <v>21053</v>
       </c>
       <c r="B9" s="7" t="n"/>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>1321YY088</t>
+          <t>1321YY033</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>ラサ商事（株）　名古屋支店</t>
+          <t>大志野産業株式会社</t>
         </is>
       </c>
       <c r="F9" s="7" t="n">
-        <v>1504000</v>
+        <v>267000</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n">
-        <v>526000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
         <v>0</v>
@@ -952,37 +934,35 @@
         <v>0</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>526000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>978000</v>
+        <v>267000</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>70122</v>
+        <v>61603</v>
       </c>
       <c r="O9" s="7" t="n"/>
       <c r="P9" s="7" t="inlineStr">
         <is>
-          <t>P-409-2 ｽﾗﾘｰ送液ﾎﾟﾝﾌﾟ更新(機器購入)</t>
-        </is>
-      </c>
-      <c r="Q9" s="8" t="n">
-        <v>44407</v>
-      </c>
+          <t>CD輸送機更新工事(DR-125ﾊﾞｹｯﾄ減速機購入)</t>
+        </is>
+      </c>
+      <c r="Q9" s="7" t="n"/>
       <c r="R9" s="7" t="inlineStr">
         <is>
-          <t>4502182078</t>
+          <t>4502186223</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>21411</v>
+        <v>19718</v>
       </c>
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>1321YY067</t>
+          <t>1321YY086</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -992,11 +972,11 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>大志野産業株式会社</t>
         </is>
       </c>
       <c r="F10" s="7" t="n">
-        <v>335000</v>
+        <v>400000</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>0</v>
@@ -1015,32 +995,34 @@
         <v>0</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>335000</v>
+        <v>400000</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>70340</v>
+        <v>57960</v>
       </c>
       <c r="O10" s="7" t="n"/>
       <c r="P10" s="7" t="inlineStr">
         <is>
-          <t>LCV-6515ボイラー給水CV弁更新(計装工事)</t>
-        </is>
-      </c>
-      <c r="Q10" s="7" t="n"/>
+          <t>G-802-3回収ｽﾗﾘｰﾀﾝｸ減速機更新（機器購入）</t>
+        </is>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v>44377</v>
+      </c>
       <c r="R10" s="7" t="inlineStr">
         <is>
-          <t>4502186404</t>
+          <t>4502185115</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>21295</v>
+        <v>19719</v>
       </c>
       <c r="B11" s="7" t="n"/>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>2121YY082</t>
+          <t>1321YY085</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
@@ -1050,18 +1032,18 @@
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>大志野産業株式会社</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
-        <v>4198000</v>
+        <v>1260000</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n">
-        <v>208000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
         <v>0</v>
@@ -1070,35 +1052,37 @@
         <v>0</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>208000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>3990000</v>
+        <v>1260000</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>70331</v>
+        <v>57978</v>
       </c>
       <c r="O11" s="7" t="n"/>
       <c r="P11" s="7" t="inlineStr">
         <is>
-          <t>E-236廃熱ﾎﾞｲﾗｰ性能検査整備工事(2021年度)</t>
-        </is>
-      </c>
-      <c r="Q11" s="7" t="n"/>
+          <t>G-502-6 BDｽﾄﾚｰｼﾞﾀﾝｸ減速機更新(機器購入)</t>
+        </is>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <v>44407</v>
+      </c>
       <c r="R11" s="7" t="inlineStr">
         <is>
-          <t>4502181459</t>
+          <t>4502185114</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>21291</v>
+        <v>19720</v>
       </c>
       <c r="B12" s="7" t="n"/>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>2121YY079</t>
+          <t>1321YY093</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -1108,18 +1092,18 @@
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>大志野産業株式会社</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>5970000</v>
+        <v>1000000</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n">
-        <v>290000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>0</v>
@@ -1128,35 +1112,37 @@
         <v>0</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>290000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>5680000</v>
+        <v>1000000</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>70330</v>
+        <v>57990</v>
       </c>
       <c r="O12" s="7" t="n"/>
       <c r="P12" s="7" t="inlineStr">
         <is>
-          <t>T-118 塩化炉ｸｴﾝﾁﾀﾞｸﾄ整備工事 その1</t>
-        </is>
-      </c>
-      <c r="Q12" s="7" t="n"/>
+          <t>G-446C ｽﾗﾘｰｽﾄｯｸﾀﾝｸ減速機更新（機器購入）</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <v>44377</v>
+      </c>
       <c r="R12" s="7" t="inlineStr">
         <is>
-          <t>4502181458</t>
+          <t>4502185158</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>20088</v>
+        <v>21275</v>
       </c>
       <c r="B13" s="7" t="n"/>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>1321YY082</t>
+          <t>1321YY008</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
@@ -1166,18 +1152,18 @@
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>三興商事（株）　名古屋（営）</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>4808000</v>
+        <v>68000000</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="7" t="n">
-        <v>238000</v>
+        <v>8200000</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>0</v>
@@ -1186,51 +1172,51 @@
         <v>0</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>238000</v>
+        <v>8200000</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>4570000</v>
+        <v>59800000</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>70134</v>
+        <v>70068</v>
       </c>
       <c r="O13" s="7" t="n"/>
       <c r="P13" s="7" t="inlineStr">
         <is>
-          <t>S-351　対面M/H製作工事（M/H製作）</t>
+          <t>E-773 冷凍機の更新工事（機器購入）</t>
         </is>
       </c>
       <c r="Q13" s="8" t="n">
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="R13" s="7" t="inlineStr">
         <is>
-          <t>4502182075</t>
+          <t>4502181327</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>21293</v>
+        <v>21418</v>
       </c>
       <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>1321YY518</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>無機G</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>（株）杉本組</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>114000</v>
+        <v>1650000</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
@@ -1249,55 +1235,55 @@
         <v>0</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>114000</v>
+        <v>1650000</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>70005</v>
+        <v>70090</v>
       </c>
       <c r="O14" s="7" t="n"/>
       <c r="P14" s="7" t="inlineStr">
         <is>
-          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(月例点検1)</t>
+          <t>旧ﾍﾟﾚ石膏置場南側柱補強･ﾃﾝﾄ張替工事 土建</t>
         </is>
       </c>
       <c r="Q14" s="8" t="n">
-        <v>44377</v>
+        <v>44500</v>
       </c>
       <c r="R14" s="7" t="inlineStr">
         <is>
-          <t>4502181325</t>
+          <t>4502186288</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>21293</v>
+        <v>19859</v>
       </c>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>1321YY721</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>環境G</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>（株）杉本組</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>310000</v>
+        <v>1540000</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J15" s="7" t="n">
         <v>0</v>
@@ -1306,18 +1292,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>310000</v>
+        <v>1500000</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>70008</v>
+        <v>59581</v>
       </c>
       <c r="O15" s="7" t="n"/>
       <c r="P15" s="7" t="inlineStr">
         <is>
-          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾌﾗｯﾌﾟ弁2)</t>
+          <t>2021年度 裸地舗装工事（土建）</t>
         </is>
       </c>
       <c r="Q15" s="8" t="n">
@@ -1325,32 +1311,32 @@
       </c>
       <c r="R15" s="7" t="inlineStr">
         <is>
-          <t>4502181268</t>
+          <t>4502182917</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>21293</v>
+        <v>21113</v>
       </c>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>2121YY521</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>無機G</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>（株）杉本組</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>310000</v>
+        <v>1870000</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>0</v>
@@ -1369,55 +1355,55 @@
         <v>0</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>310000</v>
+        <v>1870000</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>70009</v>
+        <v>61685</v>
       </c>
       <c r="O16" s="7" t="n"/>
       <c r="P16" s="7" t="inlineStr">
         <is>
-          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾌﾗｯﾌﾟ弁3)</t>
+          <t>F2倉庫雨漏り補修（TY包装替え場）</t>
         </is>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="R16" s="7" t="inlineStr">
         <is>
-          <t>4502181269</t>
+          <t>4502186283</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>21293</v>
+        <v>18253</v>
       </c>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>1321YY065</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>ラサ商事（株）　名古屋支店</t>
         </is>
       </c>
       <c r="F17" s="7" t="n">
-        <v>521000</v>
+        <v>970000</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="7" t="n">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="J17" s="7" t="n">
         <v>0</v>
@@ -1426,58 +1412,56 @@
         <v>0</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>521000</v>
+        <v>631000</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>70011</v>
+        <v>54267</v>
       </c>
       <c r="O17" s="7" t="n"/>
       <c r="P17" s="7" t="inlineStr">
         <is>
-          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾁｯﾌﾟｹﾞｰﾄ弁1)</t>
-        </is>
-      </c>
-      <c r="Q17" s="8" t="n">
-        <v>44407</v>
-      </c>
+          <t>1D工場　排水対策工事(ポンプ購入)</t>
+        </is>
+      </c>
+      <c r="Q17" s="7" t="n"/>
       <c r="R17" s="7" t="inlineStr">
         <is>
-          <t>4502181324</t>
+          <t>4502186599</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>21293</v>
+        <v>18253</v>
       </c>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>1321YY065</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+          <t>ラサ商事（株）　名古屋支店</t>
         </is>
       </c>
       <c r="F18" s="7" t="n">
-        <v>310000</v>
+        <v>-970000</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="7" t="n">
-        <v>0</v>
+        <v>-339000</v>
       </c>
       <c r="J18" s="7" t="n">
         <v>0</v>
@@ -1486,37 +1470,35 @@
         <v>0</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>0</v>
+        <v>-339000</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>310000</v>
+        <v>-631000</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>70006</v>
+        <v>54267</v>
       </c>
       <c r="O18" s="7" t="n"/>
       <c r="P18" s="7" t="inlineStr">
         <is>
-          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾌﾗｯﾌﾟ弁1)</t>
-        </is>
-      </c>
-      <c r="Q18" s="8" t="n">
-        <v>44377</v>
-      </c>
+          <t>1D工場　排水対策工事(ポンプ購入)</t>
+        </is>
+      </c>
+      <c r="Q18" s="7" t="n"/>
       <c r="R18" s="7" t="inlineStr">
         <is>
-          <t>4502181267</t>
+          <t>4502186599</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>21569</v>
+        <v>21448</v>
       </c>
       <c r="B19" s="7" t="n"/>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>1321YY006</t>
+          <t>1321YY088</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1526,18 +1508,18 @@
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>（株）エーゼーゴム洋行</t>
+          <t>ラサ商事（株）　名古屋支店</t>
         </is>
       </c>
       <c r="F19" s="7" t="n">
-        <v>46800000</v>
+        <v>1504000</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="7" t="n"/>
       <c r="I19" s="7" t="n">
-        <v>2800000</v>
+        <v>526000</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>0</v>
@@ -1546,58 +1528,58 @@
         <v>0</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>2800000</v>
+        <v>526000</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>44000000</v>
+        <v>978000</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>70066</v>
+        <v>70122</v>
       </c>
       <c r="O19" s="7" t="n"/>
       <c r="P19" s="7" t="inlineStr">
         <is>
-          <t>薄硫酸製造・貯酸設備更新（機器購入）</t>
+          <t>P-409-2 ｽﾗﾘｰ送液ﾎﾟﾝﾌﾟ更新(機器購入)</t>
         </is>
       </c>
       <c r="Q19" s="8" t="n">
-        <v>44454</v>
+        <v>44407</v>
       </c>
       <c r="R19" s="7" t="inlineStr">
         <is>
-          <t>4502181326</t>
+          <t>4502182078</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>21293</v>
+        <v>21522</v>
       </c>
       <c r="B20" s="7" t="n"/>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>2121YY080</t>
+          <t>1321YY063</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>大阪機器製造（株）</t>
+          <t>ラサ商事（株）　名古屋支店</t>
         </is>
       </c>
       <c r="F20" s="7" t="n">
-        <v>1647500</v>
+        <v>2820000</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="7" t="n">
-        <v>247500</v>
+        <v>980000</v>
       </c>
       <c r="J20" s="7" t="n">
         <v>0</v>
@@ -1606,58 +1588,56 @@
         <v>0</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>247500</v>
+        <v>980000</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>1400000</v>
+        <v>1840000</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>70030</v>
+        <v>70023</v>
       </c>
       <c r="O20" s="7" t="n"/>
       <c r="P20" s="7" t="inlineStr">
         <is>
-          <t>無摺動フラップ弁駆動シリンダ整備</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="n">
-        <v>44377</v>
-      </c>
+          <t>2C粉砕後横持タンク改造工事（ポンプ購入）</t>
+        </is>
+      </c>
+      <c r="Q20" s="7" t="n"/>
       <c r="R20" s="7" t="inlineStr">
         <is>
-          <t>4502181265</t>
+          <t>4502186598</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>21389</v>
+        <v>21483</v>
       </c>
       <c r="B21" s="7" t="n"/>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>1321YY077</t>
+          <t>1321YY045</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>オザワ科学（株）四日市営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F21" s="7" t="n">
-        <v>6200000</v>
+        <v>3986000</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="n"/>
       <c r="I21" s="7" t="n">
-        <v>100000</v>
+        <v>196000</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>0</v>
@@ -1666,56 +1646,58 @@
         <v>0</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>100000</v>
+        <v>196000</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>6100000</v>
+        <v>3790000</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>70453</v>
+        <v>70204</v>
       </c>
       <c r="O21" s="7" t="n"/>
       <c r="P21" s="7" t="inlineStr">
         <is>
-          <t>ｶﾞｽ分析計購入（CO-6017-1,CO2-6017-2）</t>
-        </is>
-      </c>
-      <c r="Q21" s="7" t="n"/>
+          <t>安全対策工事(機械工事）</t>
+        </is>
+      </c>
+      <c r="Q21" s="8" t="n">
+        <v>44377</v>
+      </c>
       <c r="R21" s="7" t="inlineStr">
         <is>
-          <t>4502186287</t>
+          <t>4502185211</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>21292</v>
+        <v>21486</v>
       </c>
       <c r="B22" s="7" t="n"/>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>2121YY002</t>
+          <t>1321YY052</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>黒崎播磨株式会社  大阪営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F22" s="7" t="n">
-        <v>7085760</v>
+        <v>7800000</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="7" t="n">
-        <v>0</v>
+        <v>390000</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>0</v>
@@ -1724,37 +1706,37 @@
         <v>0</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>0</v>
+        <v>390000</v>
       </c>
       <c r="M22" s="7" t="n">
-        <v>7085760</v>
+        <v>7410000</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>70098</v>
+        <v>70118</v>
       </c>
       <c r="O22" s="7" t="n"/>
       <c r="P22" s="7" t="inlineStr">
         <is>
-          <t>塩化炉レンガ購入（クロセラム）</t>
+          <t>粉塵対策工事(機械工事）</t>
         </is>
       </c>
       <c r="Q22" s="8" t="n">
-        <v>44469</v>
+        <v>44506</v>
       </c>
       <c r="R22" s="7" t="inlineStr">
         <is>
-          <t>4502180949</t>
+          <t>4502185210</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>21292</v>
+        <v>21411</v>
       </c>
       <c r="B23" s="7" t="n"/>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>2121YY002</t>
+          <t>1321YY067</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1764,18 +1746,18 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>黒崎播磨株式会社  大阪営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F23" s="7" t="n">
-        <v>48943278</v>
+        <v>335000</v>
       </c>
       <c r="G23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="7" t="n"/>
       <c r="I23" s="7" t="n">
-        <v>6202108</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="n">
         <v>0</v>
@@ -1784,51 +1766,49 @@
         <v>0</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>6202108</v>
+        <v>0</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>42741170</v>
+        <v>335000</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>70071</v>
+        <v>70340</v>
       </c>
       <c r="O23" s="7" t="n"/>
       <c r="P23" s="7" t="inlineStr">
         <is>
-          <t>塩化炉レンガ購入（炉内用）</t>
-        </is>
-      </c>
-      <c r="Q23" s="8" t="n">
-        <v>44469</v>
-      </c>
+          <t>LCV-6515ボイラー給水CV弁更新(計装工事)</t>
+        </is>
+      </c>
+      <c r="Q23" s="7" t="n"/>
       <c r="R23" s="7" t="inlineStr">
         <is>
-          <t>4502181338</t>
+          <t>4502186404</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>21292</v>
+        <v>21509</v>
       </c>
       <c r="B24" s="7" t="n"/>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>2121YY002</t>
+          <t>1321YY015</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>黒崎播磨株式会社  大阪営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F24" s="7" t="n">
-        <v>5153070</v>
+        <v>897000</v>
       </c>
       <c r="G24" s="7" t="n">
         <v>0</v>
@@ -1847,55 +1827,55 @@
         <v>0</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>5153070</v>
+        <v>897000</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>70080</v>
+        <v>70357</v>
       </c>
       <c r="O24" s="7" t="n"/>
       <c r="P24" s="7" t="inlineStr">
         <is>
-          <t>塩化炉レンガ購入（分散盤）</t>
+          <t>A-12ｱﾀｯｸﾀﾝｸ安全蓋更新工事</t>
         </is>
       </c>
       <c r="Q24" s="8" t="n">
-        <v>44526</v>
+        <v>44377</v>
       </c>
       <c r="R24" s="7" t="inlineStr">
         <is>
-          <t>4502181332</t>
+          <t>4502186273</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>19783</v>
+        <v>21510</v>
       </c>
       <c r="B25" s="7" t="n"/>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>1321YY076</t>
+          <t>1321YY009</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>（株）新光機械製作所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F25" s="7" t="n">
-        <v>5840000</v>
+        <v>536000</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="7" t="n"/>
       <c r="I25" s="7" t="n">
-        <v>390000</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="n">
         <v>0</v>
@@ -1904,58 +1884,58 @@
         <v>0</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>390000</v>
+        <v>0</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>5450000</v>
+        <v>536000</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>60975</v>
+        <v>70273</v>
       </c>
       <c r="O25" s="7" t="n"/>
       <c r="P25" s="7" t="inlineStr">
         <is>
-          <t>P-264 メインブロワー更新工事(機器購入)</t>
+          <t>A-18ｺﾝﾌﾟﾚｯｻｰｱﾌﾀｰｸｰﾗｰ更新(機械工事)</t>
         </is>
       </c>
       <c r="Q25" s="8" t="n">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="R25" s="7" t="inlineStr">
         <is>
-          <t>4502185505</t>
+          <t>4502186628</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>21425</v>
+        <v>21511</v>
       </c>
       <c r="B26" s="7" t="n"/>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>1321YY095</t>
+          <t>1321YY024</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>新日本計器（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F26" s="7" t="n">
-        <v>1296500</v>
+        <v>559000</v>
       </c>
       <c r="G26" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="7" t="n"/>
       <c r="I26" s="7" t="n">
-        <v>136500</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="n">
         <v>0</v>
@@ -1964,35 +1944,37 @@
         <v>0</v>
       </c>
       <c r="L26" s="7" t="n">
-        <v>136500</v>
+        <v>0</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>1160000</v>
+        <v>559000</v>
       </c>
       <c r="N26" s="7" t="n">
-        <v>70144</v>
+        <v>70229</v>
       </c>
       <c r="O26" s="7" t="n"/>
       <c r="P26" s="7" t="inlineStr">
         <is>
-          <t>ガス検知器購入（XIA-2368）</t>
-        </is>
-      </c>
-      <c r="Q26" s="7" t="n"/>
+          <t>A-32ｵﾘﾊﾞｰﾌｨﾙﾀｰ付帯設備改善工事(計装工事)</t>
+        </is>
+      </c>
+      <c r="Q26" s="8" t="n">
+        <v>44498</v>
+      </c>
       <c r="R26" s="7" t="inlineStr">
         <is>
-          <t>4502185507</t>
+          <t>4502186276</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>21262</v>
+        <v>21291</v>
       </c>
       <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>2121YY106</t>
+          <t>2121YY079</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
@@ -2002,18 +1984,18 @@
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>ゾーモックスジャパン（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F27" s="7" t="n">
-        <v>250000</v>
+        <v>5970000</v>
       </c>
       <c r="G27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="7" t="n"/>
       <c r="I27" s="7" t="n">
-        <v>0</v>
+        <v>290000</v>
       </c>
       <c r="J27" s="7" t="n">
         <v>0</v>
@@ -2022,58 +2004,56 @@
         <v>0</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>0</v>
+        <v>290000</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>250000</v>
+        <v>5680000</v>
       </c>
       <c r="N27" s="7" t="n">
-        <v>70178</v>
+        <v>70330</v>
       </c>
       <c r="O27" s="7" t="n"/>
       <c r="P27" s="7" t="inlineStr">
         <is>
-          <t>U-300バルブ整備工事（部品購入1）</t>
-        </is>
-      </c>
-      <c r="Q27" s="8" t="n">
-        <v>44452</v>
-      </c>
+          <t>T-118 塩化炉ｸｴﾝﾁﾀﾞｸﾄ整備工事 その1</t>
+        </is>
+      </c>
+      <c r="Q27" s="7" t="n"/>
       <c r="R27" s="7" t="inlineStr">
         <is>
-          <t>4502181339</t>
+          <t>4502181458</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>21263</v>
+        <v>21156</v>
       </c>
       <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>2121YY003</t>
+          <t>1321YY055</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>ゾーモックスジャパン（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F28" s="7" t="n">
-        <v>2480000</v>
+        <v>372000</v>
       </c>
       <c r="G28" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="7" t="n"/>
       <c r="I28" s="7" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="n">
         <v>0</v>
@@ -2082,58 +2062,58 @@
         <v>0</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>2300000</v>
+        <v>372000</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>70076</v>
+        <v>70251</v>
       </c>
       <c r="O28" s="7" t="n"/>
       <c r="P28" s="7" t="inlineStr">
         <is>
-          <t>プラグバルブの購入</t>
+          <t>2B洗浄工程　自動弁更新工事(計装工事)</t>
         </is>
       </c>
       <c r="Q28" s="8" t="n">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="R28" s="7" t="inlineStr">
         <is>
-          <t>4502169231</t>
+          <t>4502186700</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>21292</v>
+        <v>21226</v>
       </c>
       <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>2121YY002</t>
+          <t>2121YY531</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>エコクリーンG</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>中央防蝕工業（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F29" s="7" t="n">
-        <v>5996200</v>
+        <v>849000</v>
       </c>
       <c r="G29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="7" t="n"/>
       <c r="I29" s="7" t="n">
-        <v>786200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="n">
         <v>0</v>
@@ -2142,51 +2122,51 @@
         <v>0</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>786200</v>
+        <v>0</v>
       </c>
       <c r="M29" s="7" t="n">
-        <v>5210000</v>
+        <v>849000</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>70078</v>
+        <v>70367</v>
       </c>
       <c r="O29" s="7" t="n"/>
       <c r="P29" s="7" t="inlineStr">
         <is>
-          <t>塩化炉整備工事（カーボアルコア購入）</t>
+          <t>天井ｸﾚｰﾝ年次点検整備</t>
         </is>
       </c>
       <c r="Q29" s="8" t="n">
-        <v>44461</v>
+        <v>44316</v>
       </c>
       <c r="R29" s="7" t="inlineStr">
         <is>
-          <t>4502180847</t>
+          <t>4502186274</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="n">
-        <v>21411</v>
+        <v>21226</v>
       </c>
       <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>1321YY067</t>
+          <t>2121YY531</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>エコクリーンG</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>（株）旭ケミカルス 四日市営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F30" s="7" t="n">
-        <v>1020000</v>
+        <v>-849000</v>
       </c>
       <c r="G30" s="7" t="n">
         <v>0</v>
@@ -2205,55 +2185,55 @@
         <v>0</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>1020000</v>
+        <v>-849000</v>
       </c>
       <c r="N30" s="7" t="n">
-        <v>70339</v>
+        <v>70367</v>
       </c>
       <c r="O30" s="7" t="n"/>
       <c r="P30" s="7" t="inlineStr">
         <is>
-          <t>LCV-6515ボイラー給水CV弁更新(自動弁購入)</t>
+          <t>天井ｸﾚｰﾝ年次点検整備</t>
         </is>
       </c>
       <c r="Q30" s="8" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="R30" s="7" t="inlineStr">
         <is>
-          <t>4502181328</t>
+          <t>4502186274</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="n">
-        <v>21294</v>
+        <v>21231</v>
       </c>
       <c r="B31" s="7" t="n"/>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>2121YY081</t>
+          <t>2121YY035</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>（株）旭ケミカルス 四日市営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F31" s="7" t="n">
-        <v>255510</v>
+        <v>654000</v>
       </c>
       <c r="G31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="7" t="n"/>
       <c r="I31" s="7" t="n">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="n">
         <v>0</v>
@@ -2262,56 +2242,56 @@
         <v>0</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="M31" s="7" t="n">
-        <v>253000</v>
+        <v>654000</v>
       </c>
       <c r="N31" s="7" t="n">
-        <v>70386</v>
+        <v>70190</v>
       </c>
       <c r="O31" s="7" t="n"/>
       <c r="P31" s="7" t="inlineStr">
         <is>
-          <t>冷縮・精製工程ﾎﾟﾝﾌﾟ等の整備工事(ｶﾞｽｹｯﾄ)</t>
+          <t>1D工場 ｻﾝﾄﾞﾐﾙ整備工事（予備品組立）</t>
         </is>
       </c>
       <c r="Q31" s="7" t="n"/>
       <c r="R31" s="7" t="inlineStr">
         <is>
-          <t>4502185508</t>
+          <t>4502186626</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="n">
-        <v>21469</v>
+        <v>21231</v>
       </c>
       <c r="B32" s="7" t="n"/>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>1321YY084</t>
+          <t>2121YY035</t>
         </is>
       </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
-          <t>（株）旭ケミカルス 四日市営業所</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>1590000</v>
+        <v>-654000</v>
       </c>
       <c r="G32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="7" t="n"/>
       <c r="I32" s="7" t="n">
-        <v>190000</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="n">
         <v>0</v>
@@ -2320,49 +2300,49 @@
         <v>0</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>190000</v>
+        <v>0</v>
       </c>
       <c r="M32" s="7" t="n">
-        <v>1400000</v>
+        <v>-654000</v>
       </c>
       <c r="N32" s="7" t="n">
-        <v>70133</v>
+        <v>70190</v>
       </c>
       <c r="O32" s="7" t="n"/>
       <c r="P32" s="7" t="inlineStr">
         <is>
-          <t>S-394-1 Q-7セパレーター 充填籠の購入</t>
+          <t>1D工場 ｻﾝﾄﾞﾐﾙ整備工事（予備品組立）</t>
         </is>
       </c>
       <c r="Q32" s="7" t="n"/>
       <c r="R32" s="7" t="inlineStr">
         <is>
-          <t>4502185506</t>
+          <t>4502186626</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="n">
-        <v>21291</v>
+        <v>21231</v>
       </c>
       <c r="B33" s="7" t="n"/>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>2121YY079</t>
+          <t>2121YY035</t>
         </is>
       </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>八洲貿易（株）名古屋支店四日市営業</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>2568000</v>
+        <v>869000</v>
       </c>
       <c r="G33" s="7" t="n">
         <v>0</v>
@@ -2381,53 +2361,53 @@
         <v>0</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>2568000</v>
+        <v>869000</v>
       </c>
       <c r="N33" s="7" t="n">
-        <v>70108</v>
+        <v>70198</v>
       </c>
       <c r="O33" s="7" t="n"/>
       <c r="P33" s="7" t="inlineStr">
         <is>
-          <t>ｻｰﾓｸﾞﾗﾌｨ定期点検</t>
+          <t>1D工場 ｻﾝﾄﾞﾐﾙ整備:DR-146-1減速機分解点検</t>
         </is>
       </c>
       <c r="Q33" s="7" t="n"/>
       <c r="R33" s="7" t="inlineStr">
         <is>
-          <t>4502185504</t>
+          <t>4502186627</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="n">
-        <v>21394</v>
+        <v>21231</v>
       </c>
       <c r="B34" s="7" t="n"/>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>2121YY092</t>
+          <t>2121YY035</t>
         </is>
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>塩素法G</t>
+          <t>硫酸法G</t>
         </is>
       </c>
       <c r="E34" s="7" t="inlineStr">
         <is>
-          <t>アズビル（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>247300</v>
+        <v>-869000</v>
       </c>
       <c r="G34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="n"/>
       <c r="I34" s="7" t="n">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="n">
         <v>0</v>
@@ -2436,35 +2416,35 @@
         <v>0</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>220000</v>
+        <v>-869000</v>
       </c>
       <c r="N34" s="7" t="n">
-        <v>70179</v>
+        <v>70198</v>
       </c>
       <c r="O34" s="7" t="n"/>
       <c r="P34" s="7" t="inlineStr">
         <is>
-          <t>U-600 ﾊﾞﾙﾌﾞ整備工事（部品購入1）</t>
+          <t>1D工場 ｻﾝﾄﾞﾐﾙ整備:DR-146-1減速機分解点検</t>
         </is>
       </c>
       <c r="Q34" s="7" t="n"/>
       <c r="R34" s="7" t="inlineStr">
         <is>
-          <t>4502185509</t>
+          <t>4502186627</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="n">
-        <v>21464</v>
+        <v>21293</v>
       </c>
       <c r="B35" s="7" t="n"/>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>2121YY004</t>
+          <t>2121YY080</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
@@ -2474,11 +2454,11 @@
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>ＮＧＫケミテック（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>1920000</v>
+        <v>114000</v>
       </c>
       <c r="G35" s="7" t="n">
         <v>0</v>
@@ -2497,34 +2477,34 @@
         <v>0</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>1920000</v>
+        <v>114000</v>
       </c>
       <c r="N35" s="7" t="n">
-        <v>70126</v>
+        <v>70005</v>
       </c>
       <c r="O35" s="7" t="n"/>
       <c r="P35" s="7" t="inlineStr">
         <is>
-          <t>P-304-2マグネットポンプ分解修理　その1</t>
+          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(月例点検1)</t>
         </is>
       </c>
       <c r="Q35" s="8" t="n">
-        <v>44407</v>
+        <v>44377</v>
       </c>
       <c r="R35" s="7" t="inlineStr">
         <is>
-          <t>4502181042</t>
+          <t>4502181325</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="n">
-        <v>21464</v>
+        <v>21293</v>
       </c>
       <c r="B36" s="7" t="n"/>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>2121YY004</t>
+          <t>2121YY080</t>
         </is>
       </c>
       <c r="D36" s="7" t="inlineStr">
@@ -2534,11 +2514,11 @@
       </c>
       <c r="E36" s="7" t="inlineStr">
         <is>
-          <t>ＮＧＫケミテック（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F36" s="7" t="n">
-        <v>3000000</v>
+        <v>310000</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>0</v>
@@ -2557,34 +2537,34 @@
         <v>0</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>3000000</v>
+        <v>310000</v>
       </c>
       <c r="N36" s="7" t="n">
-        <v>70152</v>
+        <v>70008</v>
       </c>
       <c r="O36" s="7" t="n"/>
       <c r="P36" s="7" t="inlineStr">
         <is>
-          <t>P-304-2マグネットポンプ分解修理　その2</t>
+          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾌﾗｯﾌﾟ弁2)</t>
         </is>
       </c>
       <c r="Q36" s="8" t="n">
-        <v>44449</v>
+        <v>44377</v>
       </c>
       <c r="R36" s="7" t="inlineStr">
         <is>
-          <t>4502181056</t>
+          <t>4502181268</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="n">
-        <v>21471</v>
+        <v>21293</v>
       </c>
       <c r="B37" s="7" t="n"/>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>1321YY087</t>
+          <t>2121YY080</t>
         </is>
       </c>
       <c r="D37" s="7" t="inlineStr">
@@ -2594,18 +2574,18 @@
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>（株）鶴見製作所　VP営業部</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F37" s="7" t="n">
-        <v>31400000</v>
+        <v>310000</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="7" t="n"/>
       <c r="I37" s="7" t="n">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="n">
         <v>0</v>
@@ -2614,33 +2594,37 @@
         <v>0</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="M37" s="7" t="n">
-        <v>29500000</v>
+        <v>310000</v>
       </c>
       <c r="N37" s="7" t="n">
-        <v>70242</v>
+        <v>70009</v>
       </c>
       <c r="O37" s="7" t="n"/>
       <c r="P37" s="7" t="inlineStr">
         <is>
-          <t>P-383ﾅｯｼｭﾎﾟﾝﾌﾟ更新工事（機器購入）</t>
+          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾌﾗｯﾌﾟ弁3)</t>
         </is>
       </c>
       <c r="Q37" s="8" t="n">
-        <v>44589</v>
-      </c>
-      <c r="R37" s="7" t="n"/>
+        <v>44377</v>
+      </c>
+      <c r="R37" s="7" t="inlineStr">
+        <is>
+          <t>4502181269</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="n">
-        <v>21295</v>
+        <v>21293</v>
       </c>
       <c r="B38" s="7" t="n"/>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>2121YY082</t>
+          <t>2121YY080</t>
         </is>
       </c>
       <c r="D38" s="7" t="inlineStr">
@@ -2650,11 +2634,11 @@
       </c>
       <c r="E38" s="7" t="inlineStr">
         <is>
-          <t>(株)古河電工ｱﾄﾞﾊﾞﾝｽﾄｴﾝｼﾞﾆｱﾘﾝｸﾞ</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F38" s="7" t="n">
-        <v>38100</v>
+        <v>521000</v>
       </c>
       <c r="G38" s="7" t="n">
         <v>0</v>
@@ -2673,34 +2657,34 @@
         <v>0</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>38100</v>
+        <v>521000</v>
       </c>
       <c r="N38" s="7" t="n">
-        <v>70147</v>
+        <v>70011</v>
       </c>
       <c r="O38" s="7" t="n"/>
       <c r="P38" s="7" t="inlineStr">
         <is>
-          <t>E-236 廃熱ボイラーの整備工事（計装）</t>
+          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾁｯﾌﾟｹﾞｰﾄ弁1)</t>
         </is>
       </c>
       <c r="Q38" s="8" t="n">
-        <v>44316</v>
+        <v>44407</v>
       </c>
       <c r="R38" s="7" t="inlineStr">
         <is>
-          <t>4502181266</t>
+          <t>4502181324</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="n">
-        <v>21394</v>
+        <v>21293</v>
       </c>
       <c r="B39" s="7" t="n"/>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>2121YY092</t>
+          <t>2121YY080</t>
         </is>
       </c>
       <c r="D39" s="7" t="inlineStr">
@@ -2710,18 +2694,18 @@
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>五光山彦（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F39" s="7" t="n">
-        <v>341790</v>
+        <v>310000</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="7" t="n"/>
       <c r="I39" s="7" t="n">
-        <v>51790</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7" t="n">
         <v>0</v>
@@ -2730,35 +2714,37 @@
         <v>0</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>51790</v>
+        <v>0</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>290000</v>
+        <v>310000</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>70182</v>
+        <v>70006</v>
       </c>
       <c r="O39" s="7" t="n"/>
       <c r="P39" s="7" t="inlineStr">
         <is>
-          <t>U-600 ﾊﾞﾙﾌﾞ整備工事（部品購入2）</t>
-        </is>
-      </c>
-      <c r="Q39" s="7" t="n"/>
+          <t>ｻｲｸﾛﾝﾀﾞﾝﾌﾟﾊﾞﾙﾌﾞの整備工事(ﾌﾗｯﾌﾟ弁1)</t>
+        </is>
+      </c>
+      <c r="Q39" s="8" t="n">
+        <v>44377</v>
+      </c>
       <c r="R39" s="7" t="inlineStr">
         <is>
-          <t>4502186405</t>
+          <t>4502181267</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="n">
-        <v>21394</v>
+        <v>21295</v>
       </c>
       <c r="B40" s="7" t="n"/>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>2121YY092</t>
+          <t>2121YY082</t>
         </is>
       </c>
       <c r="D40" s="7" t="inlineStr">
@@ -2768,18 +2754,18 @@
       </c>
       <c r="E40" s="7" t="inlineStr">
         <is>
-          <t>五光山彦（株）</t>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
         </is>
       </c>
       <c r="F40" s="7" t="n">
-        <v>-341790</v>
+        <v>4198000</v>
       </c>
       <c r="G40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="7" t="n"/>
       <c r="I40" s="7" t="n">
-        <v>-51790</v>
+        <v>208000</v>
       </c>
       <c r="J40" s="7" t="n">
         <v>0</v>
@@ -2788,24 +2774,6374 @@
         <v>0</v>
       </c>
       <c r="L40" s="7" t="n">
-        <v>-51790</v>
+        <v>208000</v>
       </c>
       <c r="M40" s="7" t="n">
-        <v>-290000</v>
+        <v>3990000</v>
       </c>
       <c r="N40" s="7" t="n">
-        <v>70182</v>
+        <v>70331</v>
       </c>
       <c r="O40" s="7" t="n"/>
       <c r="P40" s="7" t="inlineStr">
         <is>
-          <t>U-600 ﾊﾞﾙﾌﾞ整備工事（部品購入2）</t>
+          <t>E-236廃熱ﾎﾞｲﾗｰ性能検査整備工事(2021年度)</t>
         </is>
       </c>
       <c r="Q40" s="7" t="n"/>
       <c r="R40" s="7" t="inlineStr">
         <is>
+          <t>4502181459</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n">
+        <v>21353</v>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>2121YY017</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>372000</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="n"/>
+      <c r="I41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7" t="n">
+        <v>372000</v>
+      </c>
+      <c r="N41" s="7" t="n">
+        <v>70392</v>
+      </c>
+      <c r="O41" s="7" t="n"/>
+      <c r="P41" s="7" t="inlineStr">
+        <is>
+          <t>排ｶﾞｽｽｸﾗﾊﾞｰ整備工事(ﾀﾞｸﾄ)</t>
+        </is>
+      </c>
+      <c r="Q41" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R41" s="7" t="inlineStr">
+        <is>
+          <t>4502185213</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n">
+        <v>19575</v>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>1321YY002</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>555000</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="n"/>
+      <c r="I42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="n">
+        <v>555000</v>
+      </c>
+      <c r="N42" s="7" t="n">
+        <v>70247</v>
+      </c>
+      <c r="O42" s="7" t="n"/>
+      <c r="P42" s="7" t="inlineStr">
+        <is>
+          <t>A-12抽出ｴｱｰｺﾝﾄﾛｰﾙ弁更新工事(計装工事)</t>
+        </is>
+      </c>
+      <c r="Q42" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R42" s="7" t="inlineStr">
+        <is>
+          <t>4502186629</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n">
+        <v>19575</v>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>1321YY002</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>-555000</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="n"/>
+      <c r="I43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="n">
+        <v>-555000</v>
+      </c>
+      <c r="N43" s="7" t="n">
+        <v>70247</v>
+      </c>
+      <c r="O43" s="7" t="n"/>
+      <c r="P43" s="7" t="inlineStr">
+        <is>
+          <t>A-12抽出ｴｱｰｺﾝﾄﾛｰﾙ弁更新工事(計装工事)</t>
+        </is>
+      </c>
+      <c r="Q43" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R43" s="7" t="inlineStr">
+        <is>
+          <t>4502186629</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>19575</v>
+      </c>
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>1321YY002</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>718000</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="n"/>
+      <c r="I44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="n">
+        <v>718000</v>
+      </c>
+      <c r="N44" s="7" t="n">
+        <v>59965</v>
+      </c>
+      <c r="O44" s="7" t="n"/>
+      <c r="P44" s="7" t="inlineStr">
+        <is>
+          <t>A-12抽出ｴｱｰｺﾝﾄﾛｰﾙ弁更新工事(機械工事1)</t>
+        </is>
+      </c>
+      <c r="Q44" s="7" t="n"/>
+      <c r="R44" s="7" t="inlineStr">
+        <is>
+          <t>4502186651</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>19577</v>
+      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>1321YY025</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>5175000</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7" t="n"/>
+      <c r="I45" s="7" t="n">
+        <v>255000</v>
+      </c>
+      <c r="J45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7" t="n">
+        <v>255000</v>
+      </c>
+      <c r="M45" s="7" t="n">
+        <v>4920000</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>59925</v>
+      </c>
+      <c r="O45" s="7" t="n"/>
+      <c r="P45" s="7" t="inlineStr">
+        <is>
+          <t>A-490ﾏｯﾄﾞｽﾄﾚｰｼﾞ攪拌翼ﾗｲﾆﾝｸﾞ更新工事</t>
+        </is>
+      </c>
+      <c r="Q45" s="8" t="n">
+        <v>44500</v>
+      </c>
+      <c r="R45" s="7" t="inlineStr">
+        <is>
+          <t>4502186251</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>20479</v>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>2121YY603</t>
+        </is>
+      </c>
+      <c r="D46" s="7" t="inlineStr">
+        <is>
+          <t>ボイラー管理G</t>
+        </is>
+      </c>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>210000</v>
+      </c>
+      <c r="G46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7" t="n"/>
+      <c r="I46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <v>210000</v>
+      </c>
+      <c r="N46" s="7" t="n">
+        <v>70131</v>
+      </c>
+      <c r="O46" s="7" t="n"/>
+      <c r="P46" s="7" t="inlineStr">
+        <is>
+          <t>T-3411ﾌﾗｯｼｭﾀﾝｸ定期整備(機械工事)</t>
+        </is>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v>44302</v>
+      </c>
+      <c r="R46" s="7" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>19959</v>
+      </c>
+      <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>1321YY001</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>5918000</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7" t="n"/>
+      <c r="I47" s="7" t="n">
+        <v>288000</v>
+      </c>
+      <c r="J47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7" t="n">
+        <v>288000</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>5630000</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>59963</v>
+      </c>
+      <c r="O47" s="7" t="n"/>
+      <c r="P47" s="7" t="inlineStr">
+        <is>
+          <t>A-18ｺﾝﾌﾟﾚｯｻｰﾚｼｰﾊﾞｰﾀﾝｸ更新(機械工事）</t>
+        </is>
+      </c>
+      <c r="Q47" s="8" t="n">
+        <v>44377</v>
+      </c>
+      <c r="R47" s="7" t="inlineStr">
+        <is>
+          <t>4502186275</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>20088</v>
+      </c>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>1321YY082</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>4808000</v>
+      </c>
+      <c r="G48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7" t="n"/>
+      <c r="I48" s="7" t="n">
+        <v>238000</v>
+      </c>
+      <c r="J48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7" t="n">
+        <v>238000</v>
+      </c>
+      <c r="M48" s="7" t="n">
+        <v>4570000</v>
+      </c>
+      <c r="N48" s="7" t="n">
+        <v>70134</v>
+      </c>
+      <c r="O48" s="7" t="n"/>
+      <c r="P48" s="7" t="inlineStr">
+        <is>
+          <t>S-351　対面M/H製作工事（M/H製作）</t>
+        </is>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v>44440</v>
+      </c>
+      <c r="R48" s="7" t="inlineStr">
+        <is>
+          <t>4502182075</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>19732</v>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>1321YY059</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>335000</v>
+      </c>
+      <c r="G49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="n"/>
+      <c r="I49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <v>335000</v>
+      </c>
+      <c r="N49" s="7" t="n">
+        <v>59231</v>
+      </c>
+      <c r="O49" s="7" t="n"/>
+      <c r="P49" s="7" t="inlineStr">
+        <is>
+          <t>2B熱中症対策工事（土建）設計業務</t>
+        </is>
+      </c>
+      <c r="Q49" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R49" s="7" t="inlineStr">
+        <is>
+          <t>4502185212</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>19656</v>
+      </c>
+      <c r="B50" s="7" t="n"/>
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>1321YY023</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>石原ｴﾝｼﾞﾆｱﾘﾝｸﾞﾊﾟｰﾄﾅｰｽﾞ(株)</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>3671000</v>
+      </c>
+      <c r="G50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="n"/>
+      <c r="I50" s="7" t="n">
+        <v>181000</v>
+      </c>
+      <c r="J50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7" t="n">
+        <v>181000</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>3490000</v>
+      </c>
+      <c r="N50" s="7" t="n">
+        <v>59966</v>
+      </c>
+      <c r="O50" s="7" t="n"/>
+      <c r="P50" s="7" t="inlineStr">
+        <is>
+          <t>A-27残渣送液配管更新工事(機械工事）</t>
+        </is>
+      </c>
+      <c r="Q50" s="8" t="n">
+        <v>44515</v>
+      </c>
+      <c r="R50" s="7" t="inlineStr">
+        <is>
+          <t>4502186252</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>21231</v>
+      </c>
+      <c r="B51" s="7" t="n"/>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>2121YY035</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="n"/>
+      <c r="F51" s="7" t="n">
+        <v>569000</v>
+      </c>
+      <c r="G51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="n"/>
+      <c r="I51" s="7" t="n">
+        <v>170000</v>
+      </c>
+      <c r="J51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7" t="n">
+        <v>170000</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>399000</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>70394</v>
+      </c>
+      <c r="O51" s="7" t="n"/>
+      <c r="P51" s="7" t="inlineStr">
+        <is>
+          <t>DR-146-1減速機整備(点検後整備）</t>
+        </is>
+      </c>
+      <c r="Q51" s="8" t="n">
+        <v>44393</v>
+      </c>
+      <c r="R51" s="7" t="inlineStr">
+        <is>
+          <t>4502186627</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>21231</v>
+      </c>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>2121YY035</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E52" s="7" t="n"/>
+      <c r="F52" s="7" t="n">
+        <v>-569000</v>
+      </c>
+      <c r="G52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="n"/>
+      <c r="I52" s="7" t="n">
+        <v>-170000</v>
+      </c>
+      <c r="J52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>-170000</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>-399000</v>
+      </c>
+      <c r="N52" s="7" t="n">
+        <v>70394</v>
+      </c>
+      <c r="O52" s="7" t="n"/>
+      <c r="P52" s="7" t="inlineStr">
+        <is>
+          <t>DR-146-1減速機整備(点検後整備）</t>
+        </is>
+      </c>
+      <c r="Q52" s="8" t="n">
+        <v>44393</v>
+      </c>
+      <c r="R52" s="7" t="inlineStr">
+        <is>
+          <t>4502186627</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>21516</v>
+      </c>
+      <c r="B53" s="7" t="n"/>
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>1321YY017</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>岩尾磁器工業株式会社 大阪営業所</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="n">
+        <v>31100000</v>
+      </c>
+      <c r="G53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7" t="n"/>
+      <c r="I53" s="7" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="J53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="M53" s="7" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="N53" s="7" t="n">
+        <v>70350</v>
+      </c>
+      <c r="O53" s="7" t="n"/>
+      <c r="P53" s="7" t="inlineStr">
+        <is>
+          <t>ｱﾀｯｸﾀﾝｸ煉瓦更新（煉瓦購入）</t>
+        </is>
+      </c>
+      <c r="Q53" s="7" t="n"/>
+      <c r="R53" s="7" t="inlineStr">
+        <is>
+          <t>4502185284</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>21364</v>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>2121YY026</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">（株）宇野澤組鐵工所　</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>727200</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7" t="n"/>
+      <c r="I54" s="7" t="n">
+        <v>27200</v>
+      </c>
+      <c r="J54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7" t="n">
+        <v>27200</v>
+      </c>
+      <c r="M54" s="7" t="n">
+        <v>700000</v>
+      </c>
+      <c r="N54" s="7" t="n">
+        <v>70230</v>
+      </c>
+      <c r="O54" s="7" t="n"/>
+      <c r="P54" s="7" t="inlineStr">
+        <is>
+          <t>B-81 真空ﾎﾟﾝﾌﾟ整備工事(部品購入）</t>
+        </is>
+      </c>
+      <c r="Q54" s="7" t="n"/>
+      <c r="R54" s="7" t="inlineStr">
+        <is>
+          <t>4502185286</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n">
+        <v>21141</v>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>2121YY140</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>仕上G</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="G55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7" t="n"/>
+      <c r="I55" s="7" t="n">
+        <v>110000</v>
+      </c>
+      <c r="J55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M55" s="7" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="N55" s="7" t="n">
+        <v>70232</v>
+      </c>
+      <c r="O55" s="7" t="n"/>
+      <c r="P55" s="7" t="inlineStr">
+        <is>
+          <t>Diskｻﾝﾄﾞﾐﾙ ｳﾚﾀﾝ部品購入①</t>
+        </is>
+      </c>
+      <c r="Q55" s="8" t="n">
+        <v>44377</v>
+      </c>
+      <c r="R55" s="7" t="inlineStr">
+        <is>
+          <t>4502181340</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n">
+        <v>21231</v>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>2121YY035</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="n">
+        <v>6520000</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7" t="n"/>
+      <c r="I56" s="7" t="n">
+        <v>270000</v>
+      </c>
+      <c r="J56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7" t="n">
+        <v>270000</v>
+      </c>
+      <c r="M56" s="7" t="n">
+        <v>6250000</v>
+      </c>
+      <c r="N56" s="7" t="n">
+        <v>70189</v>
+      </c>
+      <c r="O56" s="7" t="n"/>
+      <c r="P56" s="7" t="inlineStr">
+        <is>
+          <t>1D工場 ｻﾝﾄﾞﾐﾙ整備工事（ﾗｲﾆﾝｸﾞ）</t>
+        </is>
+      </c>
+      <c r="Q56" s="8" t="n">
+        <v>44377</v>
+      </c>
+      <c r="R56" s="7" t="inlineStr">
+        <is>
+          <t>4502185198</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n">
+        <v>21231</v>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>2121YY035</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>-6520000</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7" t="n"/>
+      <c r="I57" s="7" t="n">
+        <v>-270000</v>
+      </c>
+      <c r="J57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7" t="n">
+        <v>-270000</v>
+      </c>
+      <c r="M57" s="7" t="n">
+        <v>-6250000</v>
+      </c>
+      <c r="N57" s="7" t="n">
+        <v>70189</v>
+      </c>
+      <c r="O57" s="7" t="n"/>
+      <c r="P57" s="7" t="inlineStr">
+        <is>
+          <t>1D工場 ｻﾝﾄﾞﾐﾙ整備工事（ﾗｲﾆﾝｸﾞ）</t>
+        </is>
+      </c>
+      <c r="Q57" s="8" t="n">
+        <v>44377</v>
+      </c>
+      <c r="R57" s="7" t="inlineStr">
+        <is>
+          <t>4502185198</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n">
+        <v>21353</v>
+      </c>
+      <c r="B58" s="7" t="n"/>
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>2121YY017</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E58" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>2660000</v>
+      </c>
+      <c r="G58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7" t="n"/>
+      <c r="I58" s="7" t="n">
+        <v>260000</v>
+      </c>
+      <c r="J58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7" t="n">
+        <v>260000</v>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="N58" s="7" t="n">
+        <v>70096</v>
+      </c>
+      <c r="O58" s="7" t="n"/>
+      <c r="P58" s="7" t="inlineStr">
+        <is>
+          <t>排ｶﾞｽｽｸﾗﾊﾞｰ整備(A-12-5ﾀﾞｸﾄｴｷｽﾊﾟﾝｼｮﾝ購入)</t>
+        </is>
+      </c>
+      <c r="Q58" s="7" t="n"/>
+      <c r="R58" s="7" t="inlineStr">
+        <is>
+          <t>4502186248</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
+        <v>21561</v>
+      </c>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>1321YY128</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>仕上G</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F59" s="7" t="n">
+        <v>9900000</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7" t="n"/>
+      <c r="I59" s="7" t="n">
+        <v>600000</v>
+      </c>
+      <c r="J59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7" t="n">
+        <v>600000</v>
+      </c>
+      <c r="M59" s="7" t="n">
+        <v>9300000</v>
+      </c>
+      <c r="N59" s="7" t="n">
+        <v>70211</v>
+      </c>
+      <c r="O59" s="7" t="n"/>
+      <c r="P59" s="7" t="inlineStr">
+        <is>
+          <t>仕上G ﾃﾞｨｽｸ型ｻﾝﾄﾞﾐﾙの金型更新(金型購入)</t>
+        </is>
+      </c>
+      <c r="Q59" s="7" t="n"/>
+      <c r="R59" s="7" t="inlineStr">
+        <is>
+          <t>4502182102</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n">
+        <v>21569</v>
+      </c>
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>1321YY006</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F60" s="7" t="n">
+        <v>46800000</v>
+      </c>
+      <c r="G60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7" t="n"/>
+      <c r="I60" s="7" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="J60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>44000000</v>
+      </c>
+      <c r="N60" s="7" t="n">
+        <v>70066</v>
+      </c>
+      <c r="O60" s="7" t="n"/>
+      <c r="P60" s="7" t="inlineStr">
+        <is>
+          <t>薄硫酸製造・貯酸設備更新（機器購入）</t>
+        </is>
+      </c>
+      <c r="Q60" s="8" t="n">
+        <v>44454</v>
+      </c>
+      <c r="R60" s="7" t="inlineStr">
+        <is>
+          <t>4502181326</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n">
+        <v>19607</v>
+      </c>
+      <c r="B61" s="7" t="n"/>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>1321YY119</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>仕上G</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7" t="n"/>
+      <c r="I61" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M61" s="7" t="n">
+        <v>280000</v>
+      </c>
+      <c r="N61" s="7" t="n">
+        <v>57809</v>
+      </c>
+      <c r="O61" s="7" t="n"/>
+      <c r="P61" s="7" t="inlineStr">
+        <is>
+          <t>Y-62ﾌｨﾙﾀｰﾌﾟﾚｽろ液ﾀﾝｸ更新工事(ﾀﾝｸ購入)</t>
+        </is>
+      </c>
+      <c r="Q61" s="8" t="n">
+        <v>44337</v>
+      </c>
+      <c r="R61" s="7" t="inlineStr">
+        <is>
+          <t>4502181331</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="n">
+        <v>20415</v>
+      </c>
+      <c r="B62" s="7" t="n"/>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>2121YY506</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>無機G</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>1886000</v>
+      </c>
+      <c r="G62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7" t="n"/>
+      <c r="I62" s="7" t="n">
+        <v>186000</v>
+      </c>
+      <c r="J62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7" t="n">
+        <v>186000</v>
+      </c>
+      <c r="M62" s="7" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="N62" s="7" t="n">
+        <v>70418</v>
+      </c>
+      <c r="O62" s="7" t="n"/>
+      <c r="P62" s="7" t="inlineStr">
+        <is>
+          <t>2R空気輸送設備 ｺﾞﾑ管購入(10月工事分)</t>
+        </is>
+      </c>
+      <c r="Q62" s="7" t="n"/>
+      <c r="R62" s="7" t="inlineStr">
+        <is>
+          <t>4502185528</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n">
+        <v>20415</v>
+      </c>
+      <c r="B63" s="7" t="n"/>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>2121YY506</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t>無機G</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>（株）エーゼーゴム洋行</t>
+        </is>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>1110000</v>
+      </c>
+      <c r="G63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7" t="n"/>
+      <c r="I63" s="7" t="n">
+        <v>110000</v>
+      </c>
+      <c r="J63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M63" s="7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N63" s="7" t="n">
+        <v>70427</v>
+      </c>
+      <c r="O63" s="7" t="n"/>
+      <c r="P63" s="7" t="inlineStr">
+        <is>
+          <t>2R空気輸送設備 ｺﾞﾑ管購入（3月工事分）</t>
+        </is>
+      </c>
+      <c r="Q63" s="7" t="n"/>
+      <c r="R63" s="7" t="inlineStr">
+        <is>
+          <t>4502185432</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n">
+        <v>21293</v>
+      </c>
+      <c r="B64" s="7" t="n"/>
+      <c r="C64" s="7" t="inlineStr">
+        <is>
+          <t>2121YY080</t>
+        </is>
+      </c>
+      <c r="D64" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E64" s="7" t="inlineStr">
+        <is>
+          <t>大阪機器製造（株）</t>
+        </is>
+      </c>
+      <c r="F64" s="7" t="n">
+        <v>1647500</v>
+      </c>
+      <c r="G64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7" t="n"/>
+      <c r="I64" s="7" t="n">
+        <v>247500</v>
+      </c>
+      <c r="J64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7" t="n">
+        <v>247500</v>
+      </c>
+      <c r="M64" s="7" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="N64" s="7" t="n">
+        <v>70030</v>
+      </c>
+      <c r="O64" s="7" t="n"/>
+      <c r="P64" s="7" t="inlineStr">
+        <is>
+          <t>無摺動フラップ弁駆動シリンダ整備</t>
+        </is>
+      </c>
+      <c r="Q64" s="8" t="n">
+        <v>44377</v>
+      </c>
+      <c r="R64" s="7" t="inlineStr">
+        <is>
+          <t>4502181265</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n">
+        <v>21138</v>
+      </c>
+      <c r="B65" s="7" t="n"/>
+      <c r="C65" s="7" t="inlineStr">
+        <is>
+          <t>1321YY098</t>
+        </is>
+      </c>
+      <c r="D65" s="7" t="inlineStr">
+        <is>
+          <t>仕上G</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>株式会社大阪減速機製作所</t>
+        </is>
+      </c>
+      <c r="F65" s="7" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="G65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7" t="n"/>
+      <c r="I65" s="7" t="n">
+        <v>700000</v>
+      </c>
+      <c r="J65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7" t="n">
+        <v>700000</v>
+      </c>
+      <c r="M65" s="7" t="n">
+        <v>5800000</v>
+      </c>
+      <c r="N65" s="7" t="n">
+        <v>70135</v>
+      </c>
+      <c r="O65" s="7" t="n"/>
+      <c r="P65" s="7" t="inlineStr">
+        <is>
+          <t>F-22-11大型ｻﾝﾄﾞﾐﾙ減速機更新(予備機購入)</t>
+        </is>
+      </c>
+      <c r="Q65" s="8" t="n">
+        <v>44530</v>
+      </c>
+      <c r="R65" s="7" t="inlineStr">
+        <is>
+          <t>4502181330</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n">
+        <v>20097</v>
+      </c>
+      <c r="B66" s="7" t="n"/>
+      <c r="C66" s="7" t="inlineStr">
+        <is>
+          <t>1321YY807</t>
+        </is>
+      </c>
+      <c r="D66" s="7" t="inlineStr">
+        <is>
+          <t>色材開発G</t>
+        </is>
+      </c>
+      <c r="E66" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F66" s="7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7" t="n"/>
+      <c r="I66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="N66" s="7" t="n">
+        <v>61354</v>
+      </c>
+      <c r="O66" s="7" t="n"/>
+      <c r="P66" s="7" t="inlineStr">
+        <is>
+          <t>220号室熱風乾燥機の更新(乾燥機購入)</t>
+        </is>
+      </c>
+      <c r="Q66" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R66" s="7" t="inlineStr">
+        <is>
+          <t>4502186218</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n">
+        <v>20136</v>
+      </c>
+      <c r="B67" s="7" t="n"/>
+      <c r="C67" s="7" t="inlineStr">
+        <is>
+          <t>1321YY808</t>
+        </is>
+      </c>
+      <c r="D67" s="7" t="inlineStr">
+        <is>
+          <t>色材開発G</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="G67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7" t="n"/>
+      <c r="I67" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M67" s="7" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N67" s="7" t="n">
+        <v>70161</v>
+      </c>
+      <c r="O67" s="7" t="n"/>
+      <c r="P67" s="7" t="inlineStr">
+        <is>
+          <t>Qﾐﾙ本体購入</t>
+        </is>
+      </c>
+      <c r="Q67" s="8" t="n">
+        <v>44469</v>
+      </c>
+      <c r="R67" s="7" t="inlineStr">
+        <is>
+          <t>4502186280</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="n">
+        <v>20046</v>
+      </c>
+      <c r="B68" s="7" t="n"/>
+      <c r="C68" s="7" t="inlineStr">
+        <is>
+          <t>1321YY711</t>
+        </is>
+      </c>
+      <c r="D68" s="7" t="inlineStr">
+        <is>
+          <t>無機品質管理部</t>
+        </is>
+      </c>
+      <c r="E68" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F68" s="7" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="G68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7" t="n"/>
+      <c r="I68" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M68" s="7" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="N68" s="7" t="n">
+        <v>59467</v>
+      </c>
+      <c r="O68" s="7" t="n"/>
+      <c r="P68" s="7" t="inlineStr">
+        <is>
+          <t>204号A室実験台更新</t>
+        </is>
+      </c>
+      <c r="Q68" s="8" t="n">
+        <v>44498</v>
+      </c>
+      <c r="R68" s="7" t="inlineStr">
+        <is>
+          <t>4502186730</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n">
+        <v>20332</v>
+      </c>
+      <c r="B69" s="7" t="n"/>
+      <c r="C69" s="7" t="inlineStr">
+        <is>
+          <t>2121YY705</t>
+        </is>
+      </c>
+      <c r="D69" s="7" t="inlineStr">
+        <is>
+          <t>無機品質管理部</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>42000</v>
+      </c>
+      <c r="G69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7" t="n"/>
+      <c r="I69" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M69" s="7" t="n">
+        <v>40000</v>
+      </c>
+      <c r="N69" s="7" t="n">
+        <v>70165</v>
+      </c>
+      <c r="O69" s="7" t="n"/>
+      <c r="P69" s="7" t="inlineStr">
+        <is>
+          <t>JCSS分銅校正（E2分銅）</t>
+        </is>
+      </c>
+      <c r="Q69" s="8" t="n">
+        <v>44308</v>
+      </c>
+      <c r="R69" s="7" t="inlineStr">
+        <is>
+          <t>4502186728</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n">
+        <v>21389</v>
+      </c>
+      <c r="B70" s="7" t="n"/>
+      <c r="C70" s="7" t="inlineStr">
+        <is>
+          <t>1321YY077</t>
+        </is>
+      </c>
+      <c r="D70" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E70" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="G70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7" t="n"/>
+      <c r="I70" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M70" s="7" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="N70" s="7" t="n">
+        <v>70453</v>
+      </c>
+      <c r="O70" s="7" t="n"/>
+      <c r="P70" s="7" t="inlineStr">
+        <is>
+          <t>ｶﾞｽ分析計購入（CO-6017-1,CO2-6017-2）</t>
+        </is>
+      </c>
+      <c r="Q70" s="7" t="n"/>
+      <c r="R70" s="7" t="inlineStr">
+        <is>
+          <t>4502186287</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>21256</v>
+      </c>
+      <c r="B71" s="7" t="n"/>
+      <c r="C71" s="7" t="inlineStr">
+        <is>
+          <t>1321YY818</t>
+        </is>
+      </c>
+      <c r="D71" s="7" t="inlineStr">
+        <is>
+          <t>応用技術開発G</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>630000</v>
+      </c>
+      <c r="G71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7" t="n"/>
+      <c r="I71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7" t="n">
+        <v>630000</v>
+      </c>
+      <c r="N71" s="7" t="n">
+        <v>70371</v>
+      </c>
+      <c r="O71" s="7" t="n"/>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>112号室熱風乾燥機の購入</t>
+        </is>
+      </c>
+      <c r="Q71" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R71" s="7" t="inlineStr">
+        <is>
+          <t>4502186221</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>21572</v>
+      </c>
+      <c r="B72" s="7" t="n"/>
+      <c r="C72" s="7" t="inlineStr">
+        <is>
+          <t>1321YY819</t>
+        </is>
+      </c>
+      <c r="D72" s="7" t="inlineStr">
+        <is>
+          <t>応用技術開発G</t>
+        </is>
+      </c>
+      <c r="E72" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F72" s="7" t="n">
+        <v>748000</v>
+      </c>
+      <c r="G72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7" t="n"/>
+      <c r="I72" s="7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M72" s="7" t="n">
+        <v>730000</v>
+      </c>
+      <c r="N72" s="7" t="n">
+        <v>70329</v>
+      </c>
+      <c r="O72" s="7" t="n"/>
+      <c r="P72" s="7" t="inlineStr">
+        <is>
+          <t>粉体塗装機の購入</t>
+        </is>
+      </c>
+      <c r="Q72" s="8" t="n">
+        <v>44354</v>
+      </c>
+      <c r="R72" s="7" t="inlineStr">
+        <is>
+          <t>4502186584</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>21611</v>
+      </c>
+      <c r="B73" s="7" t="n"/>
+      <c r="C73" s="7" t="inlineStr">
+        <is>
+          <t>2121YY806</t>
+        </is>
+      </c>
+      <c r="D73" s="7" t="inlineStr">
+        <is>
+          <t>色材開発G</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>935000</v>
+      </c>
+      <c r="G73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7" t="n"/>
+      <c r="I73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7" t="n">
+        <v>935000</v>
+      </c>
+      <c r="N73" s="7" t="n">
+        <v>70160</v>
+      </c>
+      <c r="O73" s="7" t="n"/>
+      <c r="P73" s="7" t="inlineStr">
+        <is>
+          <t>遠心式粒度分布測定装置ローター交換工事</t>
+        </is>
+      </c>
+      <c r="Q73" s="8" t="n">
+        <v>44333</v>
+      </c>
+      <c r="R73" s="7" t="inlineStr">
+        <is>
+          <t>4502186303</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>21404</v>
+      </c>
+      <c r="B74" s="7" t="n"/>
+      <c r="C74" s="7" t="inlineStr">
+        <is>
+          <t>1321YY717</t>
+        </is>
+      </c>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>環境G</t>
+        </is>
+      </c>
+      <c r="E74" s="7" t="inlineStr">
+        <is>
+          <t>オザワ科学（株）四日市営業所</t>
+        </is>
+      </c>
+      <c r="F74" s="7" t="n">
+        <v>499000</v>
+      </c>
+      <c r="G74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7" t="n"/>
+      <c r="I74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7" t="n">
+        <v>499000</v>
+      </c>
+      <c r="N74" s="7" t="n">
+        <v>70282</v>
+      </c>
+      <c r="O74" s="7" t="n"/>
+      <c r="P74" s="7" t="inlineStr">
+        <is>
+          <t>γ線ｼﾝﾁﾚｰｼｮﾝｻｰﾍﾞｲﾒｰﾀｰ（TCS-1172)購入</t>
+        </is>
+      </c>
+      <c r="Q74" s="7" t="n"/>
+      <c r="R74" s="7" t="inlineStr">
+        <is>
+          <t>4502185285</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>21292</v>
+      </c>
+      <c r="B75" s="7" t="n"/>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>2121YY002</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>黒崎播磨株式会社  大阪営業所</t>
+        </is>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>48943278</v>
+      </c>
+      <c r="G75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7" t="n"/>
+      <c r="I75" s="7" t="n">
+        <v>6202108</v>
+      </c>
+      <c r="J75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7" t="n">
+        <v>6202108</v>
+      </c>
+      <c r="M75" s="7" t="n">
+        <v>42741170</v>
+      </c>
+      <c r="N75" s="7" t="n">
+        <v>70071</v>
+      </c>
+      <c r="O75" s="7" t="n"/>
+      <c r="P75" s="7" t="inlineStr">
+        <is>
+          <t>塩化炉レンガ購入（炉内用）</t>
+        </is>
+      </c>
+      <c r="Q75" s="8" t="n">
+        <v>44469</v>
+      </c>
+      <c r="R75" s="7" t="inlineStr">
+        <is>
+          <t>4502181338</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>21292</v>
+      </c>
+      <c r="B76" s="7" t="n"/>
+      <c r="C76" s="7" t="inlineStr">
+        <is>
+          <t>2121YY002</t>
+        </is>
+      </c>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="inlineStr">
+        <is>
+          <t>黒崎播磨株式会社  大阪営業所</t>
+        </is>
+      </c>
+      <c r="F76" s="7" t="n">
+        <v>7085760</v>
+      </c>
+      <c r="G76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7" t="n"/>
+      <c r="I76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7" t="n">
+        <v>7085760</v>
+      </c>
+      <c r="N76" s="7" t="n">
+        <v>70098</v>
+      </c>
+      <c r="O76" s="7" t="n"/>
+      <c r="P76" s="7" t="inlineStr">
+        <is>
+          <t>塩化炉レンガ購入（クロセラム）</t>
+        </is>
+      </c>
+      <c r="Q76" s="8" t="n">
+        <v>44469</v>
+      </c>
+      <c r="R76" s="7" t="inlineStr">
+        <is>
+          <t>4502180949</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>21292</v>
+      </c>
+      <c r="B77" s="7" t="n"/>
+      <c r="C77" s="7" t="inlineStr">
+        <is>
+          <t>2121YY002</t>
+        </is>
+      </c>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>黒崎播磨株式会社  大阪営業所</t>
+        </is>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>5153070</v>
+      </c>
+      <c r="G77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7" t="n"/>
+      <c r="I77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7" t="n">
+        <v>5153070</v>
+      </c>
+      <c r="N77" s="7" t="n">
+        <v>70080</v>
+      </c>
+      <c r="O77" s="7" t="n"/>
+      <c r="P77" s="7" t="inlineStr">
+        <is>
+          <t>塩化炉レンガ購入（分散盤）</t>
+        </is>
+      </c>
+      <c r="Q77" s="8" t="n">
+        <v>44526</v>
+      </c>
+      <c r="R77" s="7" t="inlineStr">
+        <is>
+          <t>4502181332</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>19783</v>
+      </c>
+      <c r="B78" s="7" t="n"/>
+      <c r="C78" s="7" t="inlineStr">
+        <is>
+          <t>1321YY076</t>
+        </is>
+      </c>
+      <c r="D78" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="inlineStr">
+        <is>
+          <t>（株）新光機械製作所</t>
+        </is>
+      </c>
+      <c r="F78" s="7" t="n">
+        <v>5840000</v>
+      </c>
+      <c r="G78" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7" t="n"/>
+      <c r="I78" s="7" t="n">
+        <v>390000</v>
+      </c>
+      <c r="J78" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7" t="n">
+        <v>390000</v>
+      </c>
+      <c r="M78" s="7" t="n">
+        <v>5450000</v>
+      </c>
+      <c r="N78" s="7" t="n">
+        <v>60975</v>
+      </c>
+      <c r="O78" s="7" t="n"/>
+      <c r="P78" s="7" t="inlineStr">
+        <is>
+          <t>P-264 メインブロワー更新工事(機器購入)</t>
+        </is>
+      </c>
+      <c r="Q78" s="8" t="n">
+        <v>44439</v>
+      </c>
+      <c r="R78" s="7" t="inlineStr">
+        <is>
+          <t>4502185505</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>21425</v>
+      </c>
+      <c r="B79" s="7" t="n"/>
+      <c r="C79" s="7" t="inlineStr">
+        <is>
+          <t>1321YY095</t>
+        </is>
+      </c>
+      <c r="D79" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>新日本計器（株）</t>
+        </is>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>1296500</v>
+      </c>
+      <c r="G79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7" t="n"/>
+      <c r="I79" s="7" t="n">
+        <v>136500</v>
+      </c>
+      <c r="J79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7" t="n">
+        <v>136500</v>
+      </c>
+      <c r="M79" s="7" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="N79" s="7" t="n">
+        <v>70144</v>
+      </c>
+      <c r="O79" s="7" t="n"/>
+      <c r="P79" s="7" t="inlineStr">
+        <is>
+          <t>ガス検知器購入（XIA-2368）</t>
+        </is>
+      </c>
+      <c r="Q79" s="7" t="n"/>
+      <c r="R79" s="7" t="inlineStr">
+        <is>
+          <t>4502185507</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>21531</v>
+      </c>
+      <c r="B80" s="7" t="n"/>
+      <c r="C80" s="7" t="inlineStr">
+        <is>
+          <t>1321YY064</t>
+        </is>
+      </c>
+      <c r="D80" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E80" s="7" t="inlineStr">
+        <is>
+          <t>新日本計器（株）</t>
+        </is>
+      </c>
+      <c r="F80" s="7" t="n">
+        <v>33000</v>
+      </c>
+      <c r="G80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7" t="n"/>
+      <c r="I80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>33000</v>
+      </c>
+      <c r="N80" s="7" t="n">
+        <v>70196</v>
+      </c>
+      <c r="O80" s="7" t="n"/>
+      <c r="P80" s="7" t="inlineStr">
+        <is>
+          <t>圧力計購入（PG-6076-1,3）</t>
+        </is>
+      </c>
+      <c r="Q80" s="7" t="n"/>
+      <c r="R80" s="7" t="inlineStr">
+        <is>
+          <t>4502186533</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>16513</v>
+      </c>
+      <c r="B81" s="7" t="n"/>
+      <c r="C81" s="7" t="inlineStr">
+        <is>
+          <t>1321YY003</t>
+        </is>
+      </c>
+      <c r="D81" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>西華産業（株）名古屋支店</t>
+        </is>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7" t="n"/>
+      <c r="I81" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M81" s="7" t="n">
+        <v>900000</v>
+      </c>
+      <c r="N81" s="7" t="n">
+        <v>70166</v>
+      </c>
+      <c r="O81" s="7" t="n"/>
+      <c r="P81" s="7" t="inlineStr">
+        <is>
+          <t>DA-681 ﾚｲﾓﾝﾄﾞﾐﾙ更新工事(ﾚｲﾓﾝﾄﾞﾐﾙ試運転)</t>
+        </is>
+      </c>
+      <c r="Q81" s="7" t="n"/>
+      <c r="R81" s="7" t="inlineStr">
+        <is>
+          <t>4502185278</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>21262</v>
+      </c>
+      <c r="B82" s="7" t="n"/>
+      <c r="C82" s="7" t="inlineStr">
+        <is>
+          <t>2121YY106</t>
+        </is>
+      </c>
+      <c r="D82" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E82" s="7" t="inlineStr">
+        <is>
+          <t>ゾーモックスジャパン（株）</t>
+        </is>
+      </c>
+      <c r="F82" s="7" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7" t="n"/>
+      <c r="I82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7" t="n">
+        <v>250000</v>
+      </c>
+      <c r="N82" s="7" t="n">
+        <v>70178</v>
+      </c>
+      <c r="O82" s="7" t="n"/>
+      <c r="P82" s="7" t="inlineStr">
+        <is>
+          <t>U-300バルブ整備工事（部品購入1）</t>
+        </is>
+      </c>
+      <c r="Q82" s="8" t="n">
+        <v>44452</v>
+      </c>
+      <c r="R82" s="7" t="inlineStr">
+        <is>
+          <t>4502181339</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>21263</v>
+      </c>
+      <c r="B83" s="7" t="n"/>
+      <c r="C83" s="7" t="inlineStr">
+        <is>
+          <t>2121YY003</t>
+        </is>
+      </c>
+      <c r="D83" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>ゾーモックスジャパン（株）</t>
+        </is>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>2480000</v>
+      </c>
+      <c r="G83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7" t="n"/>
+      <c r="I83" s="7" t="n">
+        <v>180000</v>
+      </c>
+      <c r="J83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="7" t="n">
+        <v>180000</v>
+      </c>
+      <c r="M83" s="7" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="N83" s="7" t="n">
+        <v>70076</v>
+      </c>
+      <c r="O83" s="7" t="n"/>
+      <c r="P83" s="7" t="inlineStr">
+        <is>
+          <t>プラグバルブの購入</t>
+        </is>
+      </c>
+      <c r="Q83" s="8" t="n">
+        <v>44469</v>
+      </c>
+      <c r="R83" s="7" t="inlineStr">
+        <is>
+          <t>4502169231</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>21292</v>
+      </c>
+      <c r="B84" s="7" t="n"/>
+      <c r="C84" s="7" t="inlineStr">
+        <is>
+          <t>2121YY002</t>
+        </is>
+      </c>
+      <c r="D84" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E84" s="7" t="inlineStr">
+        <is>
+          <t>中央防蝕工業（株）</t>
+        </is>
+      </c>
+      <c r="F84" s="7" t="n">
+        <v>5996200</v>
+      </c>
+      <c r="G84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7" t="n"/>
+      <c r="I84" s="7" t="n">
+        <v>786200</v>
+      </c>
+      <c r="J84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7" t="n">
+        <v>786200</v>
+      </c>
+      <c r="M84" s="7" t="n">
+        <v>5210000</v>
+      </c>
+      <c r="N84" s="7" t="n">
+        <v>70078</v>
+      </c>
+      <c r="O84" s="7" t="n"/>
+      <c r="P84" s="7" t="inlineStr">
+        <is>
+          <t>塩化炉整備工事（カーボアルコア購入）</t>
+        </is>
+      </c>
+      <c r="Q84" s="8" t="n">
+        <v>44461</v>
+      </c>
+      <c r="R84" s="7" t="inlineStr">
+        <is>
+          <t>4502180847</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>20192</v>
+      </c>
+      <c r="B85" s="7" t="n"/>
+      <c r="C85" s="7" t="inlineStr">
+        <is>
+          <t>1321YY712</t>
+        </is>
+      </c>
+      <c r="D85" s="7" t="inlineStr">
+        <is>
+          <t>無機品質管理部</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>（株）中央理化</t>
+        </is>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>1018000</v>
+      </c>
+      <c r="G85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7" t="n"/>
+      <c r="I85" s="7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M85" s="7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N85" s="7" t="n">
+        <v>70292</v>
+      </c>
+      <c r="O85" s="7" t="n"/>
+      <c r="P85" s="7" t="inlineStr">
+        <is>
+          <t>光沢計の更新</t>
+        </is>
+      </c>
+      <c r="Q85" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R85" s="7" t="inlineStr">
+        <is>
+          <t>4502186286</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>20363</v>
+      </c>
+      <c r="B86" s="7" t="n"/>
+      <c r="C86" s="7" t="inlineStr">
+        <is>
+          <t>2121YY420</t>
+        </is>
+      </c>
+      <c r="D86" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E86" s="7" t="inlineStr">
+        <is>
+          <t>（株）中央理化</t>
+        </is>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>122000</v>
+      </c>
+      <c r="G86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7" t="n"/>
+      <c r="I86" s="7" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M86" s="7" t="n">
+        <v>109000</v>
+      </c>
+      <c r="N86" s="7" t="n">
+        <v>70036</v>
+      </c>
+      <c r="O86" s="7" t="n"/>
+      <c r="P86" s="7" t="inlineStr">
+        <is>
+          <t>分析機器の定期整備工事(ｶｰﾙﾌｨｯｼｬｰ水分計)</t>
+        </is>
+      </c>
+      <c r="Q86" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R86" s="7" t="inlineStr">
+        <is>
+          <t>4502186222</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>20357</v>
+      </c>
+      <c r="B87" s="7" t="n"/>
+      <c r="C87" s="7" t="inlineStr">
+        <is>
+          <t>2121YY416</t>
+        </is>
+      </c>
+      <c r="D87" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>（株）帝国電機製作所名古屋（営）</t>
+        </is>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>426300</v>
+      </c>
+      <c r="G87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7" t="n"/>
+      <c r="I87" s="7" t="n">
+        <v>26300</v>
+      </c>
+      <c r="J87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7" t="n">
+        <v>26300</v>
+      </c>
+      <c r="M87" s="7" t="n">
+        <v>400000</v>
+      </c>
+      <c r="N87" s="7" t="n">
+        <v>70070</v>
+      </c>
+      <c r="O87" s="7" t="n"/>
+      <c r="P87" s="7" t="inlineStr">
+        <is>
+          <t>機器等の年次整備工事_P-739AB部品購入</t>
+        </is>
+      </c>
+      <c r="Q87" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R87" s="7" t="inlineStr">
+        <is>
+          <t>4502186217</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>18450</v>
+      </c>
+      <c r="B88" s="7" t="n"/>
+      <c r="C88" s="7" t="inlineStr">
+        <is>
+          <t>1321YY429</t>
+        </is>
+      </c>
+      <c r="D88" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E88" s="7" t="inlineStr">
+        <is>
+          <t>東洋電機（株）</t>
+        </is>
+      </c>
+      <c r="F88" s="7" t="n">
+        <v>385000</v>
+      </c>
+      <c r="G88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7" t="n"/>
+      <c r="I88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7" t="n">
+        <v>385000</v>
+      </c>
+      <c r="N88" s="7" t="n">
+        <v>56660</v>
+      </c>
+      <c r="O88" s="7" t="n"/>
+      <c r="P88" s="7" t="inlineStr">
+        <is>
+          <t>医薬工場 X-731､T-732撤去工事(電気計装)</t>
+        </is>
+      </c>
+      <c r="Q88" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R88" s="7" t="inlineStr">
+        <is>
+          <t>4502186219</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>18450</v>
+      </c>
+      <c r="B89" s="7" t="n"/>
+      <c r="C89" s="7" t="inlineStr">
+        <is>
+          <t>1321YY429</t>
+        </is>
+      </c>
+      <c r="D89" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>東洋電機（株）</t>
+        </is>
+      </c>
+      <c r="F89" s="7" t="n">
+        <v>-385000</v>
+      </c>
+      <c r="G89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7" t="n"/>
+      <c r="I89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7" t="n">
+        <v>-385000</v>
+      </c>
+      <c r="N89" s="7" t="n">
+        <v>56660</v>
+      </c>
+      <c r="O89" s="7" t="n"/>
+      <c r="P89" s="7" t="inlineStr">
+        <is>
+          <t>医薬工場 X-731､T-732撤去工事(電気計装)</t>
+        </is>
+      </c>
+      <c r="Q89" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R89" s="7" t="inlineStr">
+        <is>
+          <t>4502186219</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>19048</v>
+      </c>
+      <c r="B90" s="7" t="n"/>
+      <c r="C90" s="7" t="inlineStr">
+        <is>
+          <t>1321YY404</t>
+        </is>
+      </c>
+      <c r="D90" s="7" t="inlineStr">
+        <is>
+          <t>農薬製品G</t>
+        </is>
+      </c>
+      <c r="E90" s="7" t="inlineStr">
+        <is>
+          <t>ニチアス（株）四日市支店</t>
+        </is>
+      </c>
+      <c r="F90" s="7" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7" t="n"/>
+      <c r="I90" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M90" s="7" t="n">
+        <v>250000</v>
+      </c>
+      <c r="N90" s="7" t="n">
+        <v>70384</v>
+      </c>
+      <c r="O90" s="7" t="n"/>
+      <c r="P90" s="7" t="inlineStr">
+        <is>
+          <t>合成 合4工場南側屋外ﾀﾝｸ撤去 ｱｽﾍﾞｽﾄ分析</t>
+        </is>
+      </c>
+      <c r="Q90" s="7" t="n"/>
+      <c r="R90" s="7" t="inlineStr">
+        <is>
+          <t>4502186352</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B91" s="7" t="n"/>
+      <c r="C91" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D91" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F91" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7" t="n"/>
+      <c r="I91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N91" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O91" s="7" t="n"/>
+      <c r="P91" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q91" s="7" t="n"/>
+      <c r="R91" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B92" s="7" t="n"/>
+      <c r="C92" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D92" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E92" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F92" s="7" t="n">
+        <v>-1430000</v>
+      </c>
+      <c r="G92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7" t="n"/>
+      <c r="I92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7" t="n">
+        <v>-1430000</v>
+      </c>
+      <c r="N92" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O92" s="7" t="n"/>
+      <c r="P92" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q92" s="7" t="n"/>
+      <c r="R92" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B93" s="7" t="n"/>
+      <c r="C93" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D93" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F93" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7" t="n"/>
+      <c r="I93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N93" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O93" s="7" t="n"/>
+      <c r="P93" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q93" s="7" t="n"/>
+      <c r="R93" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B94" s="7" t="n"/>
+      <c r="C94" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D94" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E94" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F94" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7" t="n"/>
+      <c r="I94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N94" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O94" s="7" t="n"/>
+      <c r="P94" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q94" s="7" t="n"/>
+      <c r="R94" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B95" s="7" t="n"/>
+      <c r="C95" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D95" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F95" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7" t="n"/>
+      <c r="I95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N95" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O95" s="7" t="n"/>
+      <c r="P95" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q95" s="7" t="n"/>
+      <c r="R95" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B96" s="7" t="n"/>
+      <c r="C96" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D96" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E96" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7" t="n"/>
+      <c r="I96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N96" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O96" s="7" t="n"/>
+      <c r="P96" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q96" s="7" t="n"/>
+      <c r="R96" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B97" s="7" t="n"/>
+      <c r="C97" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D97" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F97" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7" t="n"/>
+      <c r="I97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N97" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O97" s="7" t="n"/>
+      <c r="P97" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q97" s="7" t="n"/>
+      <c r="R97" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B98" s="7" t="n"/>
+      <c r="C98" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D98" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E98" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F98" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7" t="n"/>
+      <c r="I98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N98" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O98" s="7" t="n"/>
+      <c r="P98" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q98" s="7" t="n"/>
+      <c r="R98" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B99" s="7" t="n"/>
+      <c r="C99" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D99" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7" t="n"/>
+      <c r="I99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N99" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O99" s="7" t="n"/>
+      <c r="P99" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q99" s="7" t="n"/>
+      <c r="R99" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B100" s="7" t="n"/>
+      <c r="C100" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D100" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E100" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7" t="n"/>
+      <c r="I100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N100" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O100" s="7" t="n"/>
+      <c r="P100" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q100" s="7" t="n"/>
+      <c r="R100" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B101" s="7" t="n"/>
+      <c r="C101" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D101" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F101" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7" t="n"/>
+      <c r="I101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N101" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O101" s="7" t="n"/>
+      <c r="P101" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q101" s="7" t="n"/>
+      <c r="R101" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B102" s="7" t="n"/>
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D102" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E102" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="7" t="n"/>
+      <c r="I102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N102" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O102" s="7" t="n"/>
+      <c r="P102" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q102" s="7" t="n"/>
+      <c r="R102" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B103" s="7" t="n"/>
+      <c r="C103" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D103" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F103" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7" t="n"/>
+      <c r="I103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N103" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O103" s="7" t="n"/>
+      <c r="P103" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q103" s="7" t="n"/>
+      <c r="R103" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B104" s="7" t="n"/>
+      <c r="C104" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D104" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E104" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7" t="n"/>
+      <c r="I104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N104" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O104" s="7" t="n"/>
+      <c r="P104" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q104" s="7" t="n"/>
+      <c r="R104" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B105" s="7" t="n"/>
+      <c r="C105" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D105" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F105" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G105" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7" t="n"/>
+      <c r="I105" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N105" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O105" s="7" t="n"/>
+      <c r="P105" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q105" s="7" t="n"/>
+      <c r="R105" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B106" s="7" t="n"/>
+      <c r="C106" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D106" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E106" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F106" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7" t="n"/>
+      <c r="I106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N106" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O106" s="7" t="n"/>
+      <c r="P106" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q106" s="7" t="n"/>
+      <c r="R106" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B107" s="7" t="n"/>
+      <c r="C107" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D107" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F107" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7" t="n"/>
+      <c r="I107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N107" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O107" s="7" t="n"/>
+      <c r="P107" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q107" s="7" t="n"/>
+      <c r="R107" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B108" s="7" t="n"/>
+      <c r="C108" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D108" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E108" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F108" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7" t="n"/>
+      <c r="I108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N108" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O108" s="7" t="n"/>
+      <c r="P108" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q108" s="7" t="n"/>
+      <c r="R108" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B109" s="7" t="n"/>
+      <c r="C109" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D109" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F109" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G109" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7" t="n"/>
+      <c r="I109" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N109" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O109" s="7" t="n"/>
+      <c r="P109" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q109" s="7" t="n"/>
+      <c r="R109" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B110" s="7" t="n"/>
+      <c r="C110" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D110" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E110" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F110" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7" t="n"/>
+      <c r="I110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N110" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O110" s="7" t="n"/>
+      <c r="P110" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q110" s="7" t="n"/>
+      <c r="R110" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B111" s="7" t="n"/>
+      <c r="C111" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D111" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F111" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G111" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7" t="n"/>
+      <c r="I111" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N111" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O111" s="7" t="n"/>
+      <c r="P111" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q111" s="7" t="n"/>
+      <c r="R111" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n">
+        <v>20214</v>
+      </c>
+      <c r="B112" s="7" t="n"/>
+      <c r="C112" s="7" t="inlineStr">
+        <is>
+          <t>1321YY725</t>
+        </is>
+      </c>
+      <c r="D112" s="7" t="inlineStr">
+        <is>
+          <t>安全衛生･保安G</t>
+        </is>
+      </c>
+      <c r="E112" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F112" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="G112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7" t="n"/>
+      <c r="I112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="7" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="N112" s="7" t="n">
+        <v>70062</v>
+      </c>
+      <c r="O112" s="7" t="n"/>
+      <c r="P112" s="7" t="inlineStr">
+        <is>
+          <t>調節弁購入(LCV-8302-5,7）</t>
+        </is>
+      </c>
+      <c r="Q112" s="7" t="n"/>
+      <c r="R112" s="7" t="inlineStr">
+        <is>
+          <t>4502186602</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="n">
+        <v>21294</v>
+      </c>
+      <c r="B113" s="7" t="n"/>
+      <c r="C113" s="7" t="inlineStr">
+        <is>
+          <t>2121YY081</t>
+        </is>
+      </c>
+      <c r="D113" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F113" s="7" t="n">
+        <v>255510</v>
+      </c>
+      <c r="G113" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7" t="n"/>
+      <c r="I113" s="7" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J113" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="7" t="n">
+        <v>2510</v>
+      </c>
+      <c r="M113" s="7" t="n">
+        <v>253000</v>
+      </c>
+      <c r="N113" s="7" t="n">
+        <v>70386</v>
+      </c>
+      <c r="O113" s="7" t="n"/>
+      <c r="P113" s="7" t="inlineStr">
+        <is>
+          <t>冷縮・精製工程ﾎﾟﾝﾌﾟ等の整備工事(ｶﾞｽｹｯﾄ)</t>
+        </is>
+      </c>
+      <c r="Q113" s="7" t="n"/>
+      <c r="R113" s="7" t="inlineStr">
+        <is>
+          <t>4502185508</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="n">
+        <v>21469</v>
+      </c>
+      <c r="B114" s="7" t="n"/>
+      <c r="C114" s="7" t="inlineStr">
+        <is>
+          <t>1321YY084</t>
+        </is>
+      </c>
+      <c r="D114" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E114" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F114" s="7" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="G114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7" t="n"/>
+      <c r="I114" s="7" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="7" t="n">
+        <v>190000</v>
+      </c>
+      <c r="M114" s="7" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="N114" s="7" t="n">
+        <v>70133</v>
+      </c>
+      <c r="O114" s="7" t="n"/>
+      <c r="P114" s="7" t="inlineStr">
+        <is>
+          <t>S-394-1 Q-7セパレーター 充填籠の購入</t>
+        </is>
+      </c>
+      <c r="Q114" s="7" t="n"/>
+      <c r="R114" s="7" t="inlineStr">
+        <is>
+          <t>4502185506</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n">
+        <v>21411</v>
+      </c>
+      <c r="B115" s="7" t="n"/>
+      <c r="C115" s="7" t="inlineStr">
+        <is>
+          <t>1321YY067</t>
+        </is>
+      </c>
+      <c r="D115" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>（株）旭ケミカルス 四日市営業所</t>
+        </is>
+      </c>
+      <c r="F115" s="7" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="G115" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7" t="n"/>
+      <c r="I115" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="7" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="N115" s="7" t="n">
+        <v>70339</v>
+      </c>
+      <c r="O115" s="7" t="n"/>
+      <c r="P115" s="7" t="inlineStr">
+        <is>
+          <t>LCV-6515ボイラー給水CV弁更新(自動弁購入)</t>
+        </is>
+      </c>
+      <c r="Q115" s="8" t="n">
+        <v>44469</v>
+      </c>
+      <c r="R115" s="7" t="inlineStr">
+        <is>
+          <t>4502181328</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="n">
+        <v>20882</v>
+      </c>
+      <c r="B116" s="7" t="n"/>
+      <c r="C116" s="7" t="inlineStr">
+        <is>
+          <t>1321YY430</t>
+        </is>
+      </c>
+      <c r="D116" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E116" s="7" t="inlineStr">
+        <is>
+          <t>古庄電機産業（株）</t>
+        </is>
+      </c>
+      <c r="F116" s="7" t="n">
+        <v>4481000</v>
+      </c>
+      <c r="G116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="7" t="n"/>
+      <c r="I116" s="7" t="n">
+        <v>481000</v>
+      </c>
+      <c r="J116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" s="7" t="n">
+        <v>481000</v>
+      </c>
+      <c r="M116" s="7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N116" s="7" t="n">
+        <v>70063</v>
+      </c>
+      <c r="O116" s="7" t="n"/>
+      <c r="P116" s="7" t="inlineStr">
+        <is>
+          <t>医薬工場　照明LED化更新工事</t>
+        </is>
+      </c>
+      <c r="Q116" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R116" s="7" t="inlineStr">
+        <is>
+          <t>4502186216</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="n">
+        <v>21486</v>
+      </c>
+      <c r="B117" s="7" t="n"/>
+      <c r="C117" s="7" t="inlineStr">
+        <is>
+          <t>1321YY052</t>
+        </is>
+      </c>
+      <c r="D117" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>（株）安川メカトレック</t>
+        </is>
+      </c>
+      <c r="F117" s="7" t="n">
+        <v>84000</v>
+      </c>
+      <c r="G117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7" t="n"/>
+      <c r="I117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="7" t="n">
+        <v>84000</v>
+      </c>
+      <c r="N117" s="7" t="n">
+        <v>70119</v>
+      </c>
+      <c r="O117" s="7" t="n"/>
+      <c r="P117" s="7" t="inlineStr">
+        <is>
+          <t>粉塵対策工事(バイブレーター購入)</t>
+        </is>
+      </c>
+      <c r="Q117" s="7" t="n"/>
+      <c r="R117" s="7" t="inlineStr">
+        <is>
+          <t>4502186281</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="n">
+        <v>21291</v>
+      </c>
+      <c r="B118" s="7" t="n"/>
+      <c r="C118" s="7" t="inlineStr">
+        <is>
+          <t>2121YY079</t>
+        </is>
+      </c>
+      <c r="D118" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E118" s="7" t="inlineStr">
+        <is>
+          <t>八洲貿易（株）名古屋支店四日市営業</t>
+        </is>
+      </c>
+      <c r="F118" s="7" t="n">
+        <v>2568000</v>
+      </c>
+      <c r="G118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="7" t="n"/>
+      <c r="I118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="7" t="n">
+        <v>2568000</v>
+      </c>
+      <c r="N118" s="7" t="n">
+        <v>70108</v>
+      </c>
+      <c r="O118" s="7" t="n"/>
+      <c r="P118" s="7" t="inlineStr">
+        <is>
+          <t>ｻｰﾓｸﾞﾗﾌｨ定期点検</t>
+        </is>
+      </c>
+      <c r="Q118" s="7" t="n"/>
+      <c r="R118" s="7" t="inlineStr">
+        <is>
+          <t>4502185504</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="n">
+        <v>20360</v>
+      </c>
+      <c r="B119" s="7" t="n"/>
+      <c r="C119" s="7" t="inlineStr">
+        <is>
+          <t>2121YY415</t>
+        </is>
+      </c>
+      <c r="D119" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>八洲貿易（株）名古屋支店四日市営業</t>
+        </is>
+      </c>
+      <c r="F119" s="7" t="n">
+        <v>262000</v>
+      </c>
+      <c r="G119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="7" t="n"/>
+      <c r="I119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="7" t="n">
+        <v>262000</v>
+      </c>
+      <c r="N119" s="7" t="n">
+        <v>70065</v>
+      </c>
+      <c r="O119" s="7" t="n"/>
+      <c r="P119" s="7" t="inlineStr">
+        <is>
+          <t>基準器等の定期校正(導電率計･圧力伝送器)</t>
+        </is>
+      </c>
+      <c r="Q119" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R119" s="7" t="inlineStr">
+        <is>
+          <t>4502186354</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n">
+        <v>20332</v>
+      </c>
+      <c r="B120" s="7" t="n"/>
+      <c r="C120" s="7" t="inlineStr">
+        <is>
+          <t>2121YY705</t>
+        </is>
+      </c>
+      <c r="D120" s="7" t="inlineStr">
+        <is>
+          <t>無機品質管理部</t>
+        </is>
+      </c>
+      <c r="E120" s="7" t="inlineStr">
+        <is>
+          <t>八洲貿易（株）名古屋支店四日市営業</t>
+        </is>
+      </c>
+      <c r="F120" s="7" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="7" t="n"/>
+      <c r="I120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7" t="n">
+        <v>60000</v>
+      </c>
+      <c r="N120" s="7" t="n">
+        <v>70167</v>
+      </c>
+      <c r="O120" s="7" t="n"/>
+      <c r="P120" s="7" t="inlineStr">
+        <is>
+          <t>デジタルマルチメーター校正</t>
+        </is>
+      </c>
+      <c r="Q120" s="8" t="n">
+        <v>44308</v>
+      </c>
+      <c r="R120" s="7" t="inlineStr">
+        <is>
+          <t>4502186729</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="n">
+        <v>20332</v>
+      </c>
+      <c r="B121" s="7" t="n"/>
+      <c r="C121" s="7" t="inlineStr">
+        <is>
+          <t>2121YY705</t>
+        </is>
+      </c>
+      <c r="D121" s="7" t="inlineStr">
+        <is>
+          <t>無機品質管理部</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>八洲貿易（株）名古屋支店四日市営業</t>
+        </is>
+      </c>
+      <c r="F121" s="7" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" s="7" t="n"/>
+      <c r="I121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="7" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="N121" s="7" t="n">
+        <v>70167</v>
+      </c>
+      <c r="O121" s="7" t="n"/>
+      <c r="P121" s="7" t="inlineStr">
+        <is>
+          <t>デジタルマルチメーター校正</t>
+        </is>
+      </c>
+      <c r="Q121" s="8" t="n">
+        <v>44308</v>
+      </c>
+      <c r="R121" s="7" t="inlineStr">
+        <is>
+          <t>4502186729</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="n">
+        <v>20182</v>
+      </c>
+      <c r="B122" s="7" t="n"/>
+      <c r="C122" s="7" t="inlineStr">
+        <is>
+          <t>1321YY027</t>
+        </is>
+      </c>
+      <c r="D122" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E122" s="7" t="inlineStr">
+        <is>
+          <t>八洲貿易（株）名古屋支店四日市営業</t>
+        </is>
+      </c>
+      <c r="F122" s="7" t="n">
+        <v>742000</v>
+      </c>
+      <c r="G122" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" s="7" t="n"/>
+      <c r="I122" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="7" t="n">
+        <v>742000</v>
+      </c>
+      <c r="N122" s="7" t="n">
+        <v>70361</v>
+      </c>
+      <c r="O122" s="7" t="n"/>
+      <c r="P122" s="7" t="inlineStr">
+        <is>
+          <t>A工場ｽﾄﾚｰｼﾞﾀﾝｸ液面計更新工事(液面計購入)</t>
+        </is>
+      </c>
+      <c r="Q122" s="7" t="n"/>
+      <c r="R122" s="7" t="inlineStr">
+        <is>
+          <t>4502185431</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n">
+        <v>21394</v>
+      </c>
+      <c r="B123" s="7" t="n"/>
+      <c r="C123" s="7" t="inlineStr">
+        <is>
+          <t>2121YY092</t>
+        </is>
+      </c>
+      <c r="D123" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>アズビル（株）</t>
+        </is>
+      </c>
+      <c r="F123" s="7" t="n">
+        <v>247300</v>
+      </c>
+      <c r="G123" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="7" t="n"/>
+      <c r="I123" s="7" t="n">
+        <v>27300</v>
+      </c>
+      <c r="J123" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" s="7" t="n">
+        <v>27300</v>
+      </c>
+      <c r="M123" s="7" t="n">
+        <v>220000</v>
+      </c>
+      <c r="N123" s="7" t="n">
+        <v>70179</v>
+      </c>
+      <c r="O123" s="7" t="n"/>
+      <c r="P123" s="7" t="inlineStr">
+        <is>
+          <t>U-600 ﾊﾞﾙﾌﾞ整備工事（部品購入1）</t>
+        </is>
+      </c>
+      <c r="Q123" s="7" t="n"/>
+      <c r="R123" s="7" t="inlineStr">
+        <is>
+          <t>4502185509</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="n">
+        <v>21464</v>
+      </c>
+      <c r="B124" s="7" t="n"/>
+      <c r="C124" s="7" t="inlineStr">
+        <is>
+          <t>2121YY004</t>
+        </is>
+      </c>
+      <c r="D124" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E124" s="7" t="inlineStr">
+        <is>
+          <t>ＮＧＫケミテック（株）</t>
+        </is>
+      </c>
+      <c r="F124" s="7" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="G124" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7" t="n"/>
+      <c r="I124" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="7" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="N124" s="7" t="n">
+        <v>70126</v>
+      </c>
+      <c r="O124" s="7" t="n"/>
+      <c r="P124" s="7" t="inlineStr">
+        <is>
+          <t>P-304-2マグネットポンプ分解修理　その1</t>
+        </is>
+      </c>
+      <c r="Q124" s="8" t="n">
+        <v>44407</v>
+      </c>
+      <c r="R124" s="7" t="inlineStr">
+        <is>
+          <t>4502181042</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="n">
+        <v>21464</v>
+      </c>
+      <c r="B125" s="7" t="n"/>
+      <c r="C125" s="7" t="inlineStr">
+        <is>
+          <t>2121YY004</t>
+        </is>
+      </c>
+      <c r="D125" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>ＮＧＫケミテック（株）</t>
+        </is>
+      </c>
+      <c r="F125" s="7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G125" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="7" t="n"/>
+      <c r="I125" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" s="7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N125" s="7" t="n">
+        <v>70152</v>
+      </c>
+      <c r="O125" s="7" t="n"/>
+      <c r="P125" s="7" t="inlineStr">
+        <is>
+          <t>P-304-2マグネットポンプ分解修理　その2</t>
+        </is>
+      </c>
+      <c r="Q125" s="8" t="n">
+        <v>44449</v>
+      </c>
+      <c r="R125" s="7" t="inlineStr">
+        <is>
+          <t>4502181056</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="n">
+        <v>21227</v>
+      </c>
+      <c r="B126" s="7" t="n"/>
+      <c r="C126" s="7" t="inlineStr">
+        <is>
+          <t>2121YY037</t>
+        </is>
+      </c>
+      <c r="D126" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E126" s="7" t="inlineStr">
+        <is>
+          <t>月島マシンセールス（株）営業ｸﾞﾙｰﾌﾟ</t>
+        </is>
+      </c>
+      <c r="F126" s="7" t="n">
+        <v>3460000</v>
+      </c>
+      <c r="G126" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" s="7" t="n"/>
+      <c r="I126" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="7" t="n">
+        <v>3460000</v>
+      </c>
+      <c r="N126" s="7" t="n">
+        <v>70186</v>
+      </c>
+      <c r="O126" s="7" t="n"/>
+      <c r="P126" s="7" t="inlineStr">
+        <is>
+          <t>1CDM工場RVF点検整備(CR-513ﾊｲﾌﾛﾊﾞﾙﾌﾞ購入)</t>
+        </is>
+      </c>
+      <c r="Q126" s="7" t="n"/>
+      <c r="R126" s="7" t="inlineStr">
+        <is>
+          <t>4502186604</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="n">
+        <v>21287</v>
+      </c>
+      <c r="B127" s="7" t="n"/>
+      <c r="C127" s="7" t="inlineStr">
+        <is>
+          <t>2121YY509</t>
+        </is>
+      </c>
+      <c r="D127" s="7" t="inlineStr">
+        <is>
+          <t>無機G</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>ファインテック（株）　名古屋営業所</t>
+        </is>
+      </c>
+      <c r="F127" s="7" t="n">
+        <v>533000</v>
+      </c>
+      <c r="G127" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="7" t="n"/>
+      <c r="I127" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="7" t="n">
+        <v>533000</v>
+      </c>
+      <c r="N127" s="7" t="n">
+        <v>70449</v>
+      </c>
+      <c r="O127" s="7" t="n"/>
+      <c r="P127" s="7" t="inlineStr">
+        <is>
+          <t>2R包装製品積付ﾛﾎﾞｯﾄ･搬送機整備(ﾒｰｶｰ工事)</t>
+        </is>
+      </c>
+      <c r="Q127" s="8" t="n">
+        <v>44500</v>
+      </c>
+      <c r="R127" s="7" t="inlineStr">
+        <is>
+          <t>4502186282</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="n">
+        <v>16294</v>
+      </c>
+      <c r="B128" s="7" t="n"/>
+      <c r="C128" s="7" t="inlineStr">
+        <is>
+          <t>1318YY426</t>
+        </is>
+      </c>
+      <c r="D128" s="7" t="inlineStr">
+        <is>
+          <t>農薬製品G</t>
+        </is>
+      </c>
+      <c r="E128" s="7" t="inlineStr">
+        <is>
+          <t>（株）フューチャーイン四日市営業所</t>
+        </is>
+      </c>
+      <c r="F128" s="7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G128" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" s="7" t="n"/>
+      <c r="I128" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N128" s="7" t="n">
+        <v>70970</v>
+      </c>
+      <c r="O128" s="7" t="n"/>
+      <c r="P128" s="7" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="Q128" s="8" t="n">
+        <v>44462</v>
+      </c>
+      <c r="R128" s="7" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="n">
+        <v>19575</v>
+      </c>
+      <c r="B129" s="7" t="n"/>
+      <c r="C129" s="7" t="inlineStr">
+        <is>
+          <t>1321YY002</t>
+        </is>
+      </c>
+      <c r="D129" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>（株）キーエンス　津営業所</t>
+        </is>
+      </c>
+      <c r="F129" s="7" t="n">
+        <v>72000</v>
+      </c>
+      <c r="G129" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7" t="n"/>
+      <c r="I129" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="7" t="n">
+        <v>72000</v>
+      </c>
+      <c r="N129" s="7" t="n">
+        <v>70275</v>
+      </c>
+      <c r="O129" s="7" t="n"/>
+      <c r="P129" s="7" t="inlineStr">
+        <is>
+          <t>A-12抽出ｴｱｰｺﾝﾄﾛｰﾙ弁更新工事(PLC機器購入)</t>
+        </is>
+      </c>
+      <c r="Q129" s="7" t="n"/>
+      <c r="R129" s="7" t="inlineStr">
+        <is>
+          <t>4502186625</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="n">
+        <v>20479</v>
+      </c>
+      <c r="B130" s="7" t="n"/>
+      <c r="C130" s="7" t="inlineStr">
+        <is>
+          <t>2121YY603</t>
+        </is>
+      </c>
+      <c r="D130" s="7" t="inlineStr">
+        <is>
+          <t>ボイラー管理G</t>
+        </is>
+      </c>
+      <c r="E130" s="7" t="inlineStr">
+        <is>
+          <t>筒井工業（株）</t>
+        </is>
+      </c>
+      <c r="F130" s="7" t="n">
+        <v>916300</v>
+      </c>
+      <c r="G130" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7" t="n"/>
+      <c r="I130" s="7" t="n">
+        <v>96300</v>
+      </c>
+      <c r="J130" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" s="7" t="n">
+        <v>96300</v>
+      </c>
+      <c r="M130" s="7" t="n">
+        <v>820000</v>
+      </c>
+      <c r="N130" s="7" t="n">
+        <v>70129</v>
+      </c>
+      <c r="O130" s="7" t="n"/>
+      <c r="P130" s="7" t="inlineStr">
+        <is>
+          <t>T-3411ﾌﾗｯｼｭﾀﾝｸ定期整備工事(機械工事)</t>
+        </is>
+      </c>
+      <c r="Q130" s="8" t="n">
+        <v>44305</v>
+      </c>
+      <c r="R130" s="7" t="inlineStr">
+        <is>
+          <t>4502185535</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="n">
+        <v>19733</v>
+      </c>
+      <c r="B131" s="7" t="n"/>
+      <c r="C131" s="7" t="inlineStr">
+        <is>
+          <t>1321YY032</t>
+        </is>
+      </c>
+      <c r="D131" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>（株）パシフィックソーワ</t>
+        </is>
+      </c>
+      <c r="F131" s="7" t="n">
+        <v>399000</v>
+      </c>
+      <c r="G131" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="7" t="n"/>
+      <c r="I131" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" s="7" t="n">
+        <v>399000</v>
+      </c>
+      <c r="N131" s="7" t="n">
+        <v>59143</v>
+      </c>
+      <c r="O131" s="7" t="n"/>
+      <c r="P131" s="7" t="inlineStr">
+        <is>
+          <t>1Bﾋﾟｯｸ槽沈降防止撹拌機改造(撹拌機購入)</t>
+        </is>
+      </c>
+      <c r="Q131" s="7" t="n"/>
+      <c r="R131" s="7" t="inlineStr">
+        <is>
+          <t>4502186600</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="n">
+        <v>18253</v>
+      </c>
+      <c r="B132" s="7" t="n"/>
+      <c r="C132" s="7" t="inlineStr">
+        <is>
+          <t>1321YY065</t>
+        </is>
+      </c>
+      <c r="D132" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E132" s="7" t="inlineStr">
+        <is>
+          <t>（株）パシフィックソーワ</t>
+        </is>
+      </c>
+      <c r="F132" s="7" t="n">
+        <v>135000</v>
+      </c>
+      <c r="G132" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="7" t="n"/>
+      <c r="I132" s="7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J132" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" s="7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M132" s="7" t="n">
+        <v>120000</v>
+      </c>
+      <c r="N132" s="7" t="n">
+        <v>56378</v>
+      </c>
+      <c r="O132" s="7" t="n"/>
+      <c r="P132" s="7" t="inlineStr">
+        <is>
+          <t>1D工場 排水対策工事(排水BOX用撹拌機購入)</t>
+        </is>
+      </c>
+      <c r="Q132" s="7" t="n"/>
+      <c r="R132" s="7" t="inlineStr">
+        <is>
+          <t>4502186249</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="n">
+        <v>21471</v>
+      </c>
+      <c r="B133" s="7" t="n"/>
+      <c r="C133" s="7" t="inlineStr">
+        <is>
+          <t>1321YY087</t>
+        </is>
+      </c>
+      <c r="D133" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>（株）鶴見製作所　VP営業部</t>
+        </is>
+      </c>
+      <c r="F133" s="7" t="n">
+        <v>31400000</v>
+      </c>
+      <c r="G133" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" s="7" t="n"/>
+      <c r="I133" s="7" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="J133" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" s="7" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="M133" s="7" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="N133" s="7" t="n">
+        <v>70242</v>
+      </c>
+      <c r="O133" s="7" t="n"/>
+      <c r="P133" s="7" t="inlineStr">
+        <is>
+          <t>P-383ﾅｯｼｭﾎﾟﾝﾌﾟ更新工事（機器購入）</t>
+        </is>
+      </c>
+      <c r="Q133" s="8" t="n">
+        <v>44589</v>
+      </c>
+      <c r="R133" s="7" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="n">
+        <v>20566</v>
+      </c>
+      <c r="B134" s="7" t="n"/>
+      <c r="C134" s="7" t="inlineStr">
+        <is>
+          <t>1321YY431</t>
+        </is>
+      </c>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E134" s="7" t="inlineStr">
+        <is>
+          <t>（株）東邦設計</t>
+        </is>
+      </c>
+      <c r="F134" s="7" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G134" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" s="7" t="n"/>
+      <c r="I134" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="7" t="n">
+        <v>240000</v>
+      </c>
+      <c r="N134" s="7" t="n">
+        <v>70214</v>
+      </c>
+      <c r="O134" s="7" t="n"/>
+      <c r="P134" s="7" t="inlineStr">
+        <is>
+          <t>医薬工場 製造用水設備倉庫屋根改造:土建1</t>
+        </is>
+      </c>
+      <c r="Q134" s="7" t="n"/>
+      <c r="R134" s="7" t="inlineStr">
+        <is>
+          <t>4502186356</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="n">
+        <v>20566</v>
+      </c>
+      <c r="B135" s="7" t="n"/>
+      <c r="C135" s="7" t="inlineStr">
+        <is>
+          <t>1321YY431</t>
+        </is>
+      </c>
+      <c r="D135" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>（株）東邦設計</t>
+        </is>
+      </c>
+      <c r="F135" s="7" t="n">
+        <v>-240000</v>
+      </c>
+      <c r="G135" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7" t="n"/>
+      <c r="I135" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" s="7" t="n">
+        <v>-240000</v>
+      </c>
+      <c r="N135" s="7" t="n">
+        <v>70214</v>
+      </c>
+      <c r="O135" s="7" t="n"/>
+      <c r="P135" s="7" t="inlineStr">
+        <is>
+          <t>医薬工場 製造用水設備倉庫屋根改造:土建1</t>
+        </is>
+      </c>
+      <c r="Q135" s="7" t="n"/>
+      <c r="R135" s="7" t="inlineStr">
+        <is>
+          <t>4502186356</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="n">
+        <v>20848</v>
+      </c>
+      <c r="B136" s="7" t="n"/>
+      <c r="C136" s="7" t="inlineStr">
+        <is>
+          <t>1321YY627</t>
+        </is>
+      </c>
+      <c r="D136" s="7" t="inlineStr">
+        <is>
+          <t>保全G</t>
+        </is>
+      </c>
+      <c r="E136" s="7" t="inlineStr">
+        <is>
+          <t>（有）ミナミ電機工事</t>
+        </is>
+      </c>
+      <c r="F136" s="7" t="n">
+        <v>470000</v>
+      </c>
+      <c r="G136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7" t="n"/>
+      <c r="I136" s="7" t="n">
+        <v>70000</v>
+      </c>
+      <c r="J136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="7" t="n">
+        <v>70000</v>
+      </c>
+      <c r="M136" s="7" t="n">
+        <v>400000</v>
+      </c>
+      <c r="N136" s="7" t="n">
+        <v>70332</v>
+      </c>
+      <c r="O136" s="7" t="n"/>
+      <c r="P136" s="7" t="inlineStr">
+        <is>
+          <t>計装整備事務所移転工事(計装工事)</t>
+        </is>
+      </c>
+      <c r="Q136" s="8" t="n">
+        <v>44347</v>
+      </c>
+      <c r="R136" s="7" t="inlineStr">
+        <is>
+          <t>4502186277</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="n">
+        <v>19050</v>
+      </c>
+      <c r="B137" s="7" t="n"/>
+      <c r="C137" s="7" t="inlineStr">
+        <is>
+          <t>1321YY502</t>
+        </is>
+      </c>
+      <c r="D137" s="7" t="inlineStr">
+        <is>
+          <t>総務G</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>（有）伊達組</t>
+        </is>
+      </c>
+      <c r="F137" s="7" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G137" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="7" t="n"/>
+      <c r="I137" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J137" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M137" s="7" t="n">
+        <v>590000</v>
+      </c>
+      <c r="N137" s="7" t="n">
+        <v>70711</v>
+      </c>
+      <c r="O137" s="7" t="n"/>
+      <c r="P137" s="7" t="inlineStr">
+        <is>
+          <t>場内道路工事に関わる事前測量</t>
+        </is>
+      </c>
+      <c r="Q137" s="8" t="n">
+        <v>44319</v>
+      </c>
+      <c r="R137" s="7" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="n">
+        <v>19050</v>
+      </c>
+      <c r="B138" s="7" t="n"/>
+      <c r="C138" s="7" t="inlineStr">
+        <is>
+          <t>1321YY502</t>
+        </is>
+      </c>
+      <c r="D138" s="7" t="inlineStr">
+        <is>
+          <t>総務G</t>
+        </is>
+      </c>
+      <c r="E138" s="7" t="inlineStr">
+        <is>
+          <t>（有）伊達組</t>
+        </is>
+      </c>
+      <c r="F138" s="7" t="n">
+        <v>-600000</v>
+      </c>
+      <c r="G138" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7" t="n"/>
+      <c r="I138" s="7" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="J138" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" s="7" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="M138" s="7" t="n">
+        <v>-590000</v>
+      </c>
+      <c r="N138" s="7" t="n">
+        <v>70711</v>
+      </c>
+      <c r="O138" s="7" t="n"/>
+      <c r="P138" s="7" t="inlineStr">
+        <is>
+          <t>場内道路工事に関わる事前測量</t>
+        </is>
+      </c>
+      <c r="Q138" s="8" t="n">
+        <v>44319</v>
+      </c>
+      <c r="R138" s="7" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="n">
+        <v>21531</v>
+      </c>
+      <c r="B139" s="7" t="n"/>
+      <c r="C139" s="7" t="inlineStr">
+        <is>
+          <t>1321YY064</t>
+        </is>
+      </c>
+      <c r="D139" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>東京計装（株） 名古屋営業所</t>
+        </is>
+      </c>
+      <c r="F139" s="7" t="n">
+        <v>284000</v>
+      </c>
+      <c r="G139" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7" t="n"/>
+      <c r="I139" s="7" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J139" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" s="7" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M139" s="7" t="n">
+        <v>270000</v>
+      </c>
+      <c r="N139" s="7" t="n">
+        <v>70195</v>
+      </c>
+      <c r="O139" s="7" t="n"/>
+      <c r="P139" s="7" t="inlineStr">
+        <is>
+          <t>流量計購入（FG-6044-2）</t>
+        </is>
+      </c>
+      <c r="Q139" s="7" t="n"/>
+      <c r="R139" s="7" t="inlineStr">
+        <is>
+          <t>4502186603</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="n">
+        <v>21295</v>
+      </c>
+      <c r="B140" s="7" t="n"/>
+      <c r="C140" s="7" t="inlineStr">
+        <is>
+          <t>2121YY082</t>
+        </is>
+      </c>
+      <c r="D140" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E140" s="7" t="inlineStr">
+        <is>
+          <t>(株)古河電工ｱﾄﾞﾊﾞﾝｽﾄｴﾝｼﾞﾆｱﾘﾝｸﾞ</t>
+        </is>
+      </c>
+      <c r="F140" s="7" t="n">
+        <v>38100</v>
+      </c>
+      <c r="G140" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7" t="n"/>
+      <c r="I140" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="7" t="n">
+        <v>38100</v>
+      </c>
+      <c r="N140" s="7" t="n">
+        <v>70147</v>
+      </c>
+      <c r="O140" s="7" t="n"/>
+      <c r="P140" s="7" t="inlineStr">
+        <is>
+          <t>E-236 廃熱ボイラーの整備工事（計装）</t>
+        </is>
+      </c>
+      <c r="Q140" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R140" s="7" t="inlineStr">
+        <is>
+          <t>4502181266</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="n">
+        <v>20848</v>
+      </c>
+      <c r="B141" s="7" t="n"/>
+      <c r="C141" s="7" t="inlineStr">
+        <is>
+          <t>1321YY627</t>
+        </is>
+      </c>
+      <c r="D141" s="7" t="inlineStr">
+        <is>
+          <t>保全G</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>（株）伊藤工務店</t>
+        </is>
+      </c>
+      <c r="F141" s="7" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="G141" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7" t="n"/>
+      <c r="I141" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J141" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" s="7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M141" s="7" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="N141" s="7" t="n">
+        <v>70138</v>
+      </c>
+      <c r="O141" s="7" t="n"/>
+      <c r="P141" s="7" t="inlineStr">
+        <is>
+          <t>計装整備事務所移転工事（土建）</t>
+        </is>
+      </c>
+      <c r="Q141" s="8" t="n">
+        <v>44344</v>
+      </c>
+      <c r="R141" s="7" t="inlineStr">
+        <is>
+          <t>4502181941</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="n">
+        <v>20366</v>
+      </c>
+      <c r="B142" s="7" t="n"/>
+      <c r="C142" s="7" t="inlineStr">
+        <is>
+          <t>2121YY418</t>
+        </is>
+      </c>
+      <c r="D142" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E142" s="7" t="inlineStr">
+        <is>
+          <t>（株）シンエイテクノ</t>
+        </is>
+      </c>
+      <c r="F142" s="7" t="n">
+        <v>220000</v>
+      </c>
+      <c r="G142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7" t="n"/>
+      <c r="I142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" s="7" t="n">
+        <v>220000</v>
+      </c>
+      <c r="N142" s="7" t="n">
+        <v>70226</v>
+      </c>
+      <c r="O142" s="7" t="n"/>
+      <c r="P142" s="7" t="inlineStr">
+        <is>
+          <t>配管の補修工事 CHW配管補修</t>
+        </is>
+      </c>
+      <c r="Q142" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R142" s="7" t="inlineStr">
+        <is>
+          <t>4502186355</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="n">
+        <v>18450</v>
+      </c>
+      <c r="B143" s="7" t="n"/>
+      <c r="C143" s="7" t="inlineStr">
+        <is>
+          <t>1321YY429</t>
+        </is>
+      </c>
+      <c r="D143" s="7" t="inlineStr">
+        <is>
+          <t>医薬製品G</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>（株）シンエイテクノ</t>
+        </is>
+      </c>
+      <c r="F143" s="7" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="G143" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="7" t="n"/>
+      <c r="I143" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J143" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M143" s="7" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="N143" s="7" t="n">
+        <v>56124</v>
+      </c>
+      <c r="O143" s="7" t="n"/>
+      <c r="P143" s="7" t="inlineStr">
+        <is>
+          <t>医薬工場 X-731,T-732撤去工事_機械工事</t>
+        </is>
+      </c>
+      <c r="Q143" s="8" t="n">
+        <v>44316</v>
+      </c>
+      <c r="R143" s="7" t="inlineStr">
+        <is>
+          <t>4502186224</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="n">
+        <v>20316</v>
+      </c>
+      <c r="B144" s="7" t="n"/>
+      <c r="C144" s="7" t="inlineStr">
+        <is>
+          <t>1321YY040</t>
+        </is>
+      </c>
+      <c r="D144" s="7" t="inlineStr">
+        <is>
+          <t>硫酸法G</t>
+        </is>
+      </c>
+      <c r="E144" s="7" t="inlineStr">
+        <is>
+          <t>五光山彦（株）</t>
+        </is>
+      </c>
+      <c r="F144" s="7" t="n">
+        <v>1482500</v>
+      </c>
+      <c r="G144" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="7" t="n"/>
+      <c r="I144" s="7" t="n">
+        <v>92500</v>
+      </c>
+      <c r="J144" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" s="7" t="n">
+        <v>92500</v>
+      </c>
+      <c r="M144" s="7" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="N144" s="7" t="n">
+        <v>61487</v>
+      </c>
+      <c r="O144" s="7" t="n"/>
+      <c r="P144" s="7" t="inlineStr">
+        <is>
+          <t>シロキサン添加ポンプ更新工事(ポンプ購入)</t>
+        </is>
+      </c>
+      <c r="Q144" s="7" t="n"/>
+      <c r="R144" s="7" t="inlineStr">
+        <is>
+          <t>4502186250</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="n">
+        <v>20484</v>
+      </c>
+      <c r="B145" s="7" t="n"/>
+      <c r="C145" s="7" t="inlineStr">
+        <is>
+          <t>2121YY602</t>
+        </is>
+      </c>
+      <c r="D145" s="7" t="inlineStr">
+        <is>
+          <t>ボイラー管理G</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>五光山彦（株）</t>
+        </is>
+      </c>
+      <c r="F145" s="7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G145" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="7" t="n"/>
+      <c r="I145" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="N145" s="7" t="n">
+        <v>70181</v>
+      </c>
+      <c r="O145" s="7" t="n"/>
+      <c r="P145" s="7" t="inlineStr">
+        <is>
+          <t>M-8812-1A,2Bﾐﾙ部品購入(ｹｰｼﾝｸﾞﾗｲﾅ)</t>
+        </is>
+      </c>
+      <c r="Q145" s="8" t="n">
+        <v>44306</v>
+      </c>
+      <c r="R145" s="7" t="inlineStr">
+        <is>
+          <t>4502186253</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="n">
+        <v>21394</v>
+      </c>
+      <c r="B146" s="7" t="n"/>
+      <c r="C146" s="7" t="inlineStr">
+        <is>
+          <t>2121YY092</t>
+        </is>
+      </c>
+      <c r="D146" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E146" s="7" t="inlineStr">
+        <is>
+          <t>五光山彦（株）</t>
+        </is>
+      </c>
+      <c r="F146" s="7" t="n">
+        <v>341790</v>
+      </c>
+      <c r="G146" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" s="7" t="n"/>
+      <c r="I146" s="7" t="n">
+        <v>51790</v>
+      </c>
+      <c r="J146" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" s="7" t="n">
+        <v>51790</v>
+      </c>
+      <c r="M146" s="7" t="n">
+        <v>290000</v>
+      </c>
+      <c r="N146" s="7" t="n">
+        <v>70182</v>
+      </c>
+      <c r="O146" s="7" t="n"/>
+      <c r="P146" s="7" t="inlineStr">
+        <is>
+          <t>U-600 ﾊﾞﾙﾌﾞ整備工事（部品購入2）</t>
+        </is>
+      </c>
+      <c r="Q146" s="7" t="n"/>
+      <c r="R146" s="7" t="inlineStr">
+        <is>
           <t>4502186405</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="n">
+        <v>21394</v>
+      </c>
+      <c r="B147" s="7" t="n"/>
+      <c r="C147" s="7" t="inlineStr">
+        <is>
+          <t>2121YY092</t>
+        </is>
+      </c>
+      <c r="D147" s="7" t="inlineStr">
+        <is>
+          <t>塩素法G</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>五光山彦（株）</t>
+        </is>
+      </c>
+      <c r="F147" s="7" t="n">
+        <v>-341790</v>
+      </c>
+      <c r="G147" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" s="7" t="n"/>
+      <c r="I147" s="7" t="n">
+        <v>-51790</v>
+      </c>
+      <c r="J147" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" s="7" t="n">
+        <v>-51790</v>
+      </c>
+      <c r="M147" s="7" t="n">
+        <v>-290000</v>
+      </c>
+      <c r="N147" s="7" t="n">
+        <v>70182</v>
+      </c>
+      <c r="O147" s="7" t="n"/>
+      <c r="P147" s="7" t="inlineStr">
+        <is>
+          <t>U-600 ﾊﾞﾙﾌﾞ整備工事（部品購入2）</t>
+        </is>
+      </c>
+      <c r="Q147" s="7" t="n"/>
+      <c r="R147" s="7" t="inlineStr">
+        <is>
+          <t>4502186405</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="n">
+        <v>19642</v>
+      </c>
+      <c r="B148" s="7" t="n"/>
+      <c r="C148" s="7" t="inlineStr">
+        <is>
+          <t>1321YY526</t>
+        </is>
+      </c>
+      <c r="D148" s="7" t="inlineStr">
+        <is>
+          <t>エコクリーンG</t>
+        </is>
+      </c>
+      <c r="E148" s="7" t="inlineStr">
+        <is>
+          <t>㈱瑞穂</t>
+        </is>
+      </c>
+      <c r="F148" s="7" t="n">
+        <v>1609000</v>
+      </c>
+      <c r="G148" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" s="7" t="n"/>
+      <c r="I148" s="7" t="n">
+        <v>109000</v>
+      </c>
+      <c r="J148" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" s="7" t="n">
+        <v>109000</v>
+      </c>
+      <c r="M148" s="7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N148" s="7" t="n">
+        <v>70369</v>
+      </c>
+      <c r="O148" s="7" t="n"/>
+      <c r="P148" s="7" t="inlineStr">
+        <is>
+          <t>廃棄物搬出用ﾌｯｸﾛｰﾙｺﾝﾃﾅ(15m3)購入</t>
+        </is>
+      </c>
+      <c r="Q148" s="8" t="n">
+        <v>44358</v>
+      </c>
+      <c r="R148" s="7" t="inlineStr">
+        <is>
+          <t>4502185376</t>
         </is>
       </c>
     </row>
